--- a/Agent intent mapping.xlsx
+++ b/Agent intent mapping.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simo7\Documents\GitHub\streamlit_chatbot_danish\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\Assignments\third_year\Bachelor Project\GithubFolder\chatbot-in-danish-streamlit-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3F8CDF-84A1-43A0-ACD2-69F061550541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19770" yWindow="2385" windowWidth="17070" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19770" yWindow="2390" windowWidth="17070" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Question,Intent" sheetId="3" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="446">
   <si>
     <t>genåbnings tidspunkt</t>
   </si>
@@ -1350,12 +1349,27 @@
   </si>
   <si>
     <t>Vi har nu sendt dig en mail med nærmere instruktioner til ændringer I dit medlemskab.</t>
+  </si>
+  <si>
+    <t>Jeg vil gerne have all-in</t>
+  </si>
+  <si>
+    <t>Jeg vil gerne tilmelde mig all-in</t>
+  </si>
+  <si>
+    <t>jeg vil gerne indmelde mig all-in</t>
+  </si>
+  <si>
+    <t>Kan jeg få information om all-in</t>
+  </si>
+  <si>
+    <t>Kan jeg få mere af vide om all-in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1697,20 +1711,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E353"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E358"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="43.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="1" max="2" width="43.453125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1727,7 +1741,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1741,7 +1755,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1758,7 +1772,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -1775,7 +1789,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -1792,7 +1806,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1809,7 +1823,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -1826,7 +1840,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1843,7 +1857,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -1860,7 +1874,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -1877,7 +1891,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -1894,7 +1908,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -1911,7 +1925,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -1928,7 +1942,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1945,7 +1959,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -1962,7 +1976,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -1979,7 +1993,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -1996,7 +2010,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -2013,7 +2027,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -2030,7 +2044,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -2047,7 +2061,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2064,7 +2078,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>139</v>
       </c>
@@ -2081,7 +2095,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -2098,7 +2112,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -2115,7 +2129,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -2132,7 +2146,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2149,7 +2163,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -2166,7 +2180,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -2183,7 +2197,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -2200,7 +2214,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -2217,7 +2231,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -2234,7 +2248,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -2251,7 +2265,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -2268,7 +2282,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -2285,7 +2299,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -2302,7 +2316,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -2319,7 +2333,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -2336,7 +2350,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>154</v>
       </c>
@@ -2353,7 +2367,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -2370,7 +2384,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>156</v>
       </c>
@@ -2387,7 +2401,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>157</v>
       </c>
@@ -2404,7 +2418,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>158</v>
       </c>
@@ -2421,7 +2435,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -2438,7 +2452,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>159</v>
       </c>
@@ -2455,7 +2469,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -2472,7 +2486,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -2489,7 +2503,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -2506,7 +2520,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -2523,7 +2537,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>164</v>
       </c>
@@ -2540,7 +2554,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>165</v>
       </c>
@@ -2557,7 +2571,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -2574,7 +2588,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>166</v>
       </c>
@@ -2591,7 +2605,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -2608,7 +2622,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -2625,7 +2639,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -2642,7 +2656,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -2659,7 +2673,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -2676,7 +2690,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>171</v>
       </c>
@@ -2693,7 +2707,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>172</v>
       </c>
@@ -2710,7 +2724,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>173</v>
       </c>
@@ -2727,7 +2741,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>174</v>
       </c>
@@ -2744,7 +2758,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -2761,7 +2775,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -2778,7 +2792,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>176</v>
       </c>
@@ -2795,7 +2809,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>177</v>
       </c>
@@ -2812,7 +2826,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>178</v>
       </c>
@@ -2829,7 +2843,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>179</v>
       </c>
@@ -2846,7 +2860,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -2863,7 +2877,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>180</v>
       </c>
@@ -2880,7 +2894,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>181</v>
       </c>
@@ -2897,7 +2911,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>182</v>
       </c>
@@ -2914,7 +2928,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>183</v>
       </c>
@@ -2931,7 +2945,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>184</v>
       </c>
@@ -2948,7 +2962,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>185</v>
       </c>
@@ -2965,7 +2979,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>186</v>
       </c>
@@ -2982,7 +2996,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -2999,7 +3013,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>187</v>
       </c>
@@ -3016,7 +3030,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>188</v>
       </c>
@@ -3033,7 +3047,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>189</v>
       </c>
@@ -3050,7 +3064,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -3067,7 +3081,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -3084,7 +3098,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>191</v>
       </c>
@@ -3101,7 +3115,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>192</v>
       </c>
@@ -3118,7 +3132,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>193</v>
       </c>
@@ -3135,7 +3149,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>194</v>
       </c>
@@ -3152,7 +3166,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -3169,7 +3183,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>187</v>
       </c>
@@ -3186,7 +3200,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>195</v>
       </c>
@@ -3203,7 +3217,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>196</v>
       </c>
@@ -3220,7 +3234,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>197</v>
       </c>
@@ -3237,7 +3251,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -3254,7 +3268,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>198</v>
       </c>
@@ -3271,7 +3285,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>199</v>
       </c>
@@ -3288,7 +3302,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -3305,7 +3319,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -3322,7 +3336,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>201</v>
       </c>
@@ -3339,7 +3353,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>42</v>
       </c>
@@ -3356,7 +3370,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>202</v>
       </c>
@@ -3373,7 +3387,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>203</v>
       </c>
@@ -3390,7 +3404,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>204</v>
       </c>
@@ -3407,7 +3421,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>205</v>
       </c>
@@ -3424,7 +3438,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>43</v>
       </c>
@@ -3441,7 +3455,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>206</v>
       </c>
@@ -3458,7 +3472,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -3475,7 +3489,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -3492,7 +3506,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -3509,7 +3523,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>209</v>
       </c>
@@ -3526,7 +3540,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>210</v>
       </c>
@@ -3543,7 +3557,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -3560,7 +3574,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -3577,7 +3591,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>212</v>
       </c>
@@ -3594,7 +3608,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>213</v>
       </c>
@@ -3611,7 +3625,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>214</v>
       </c>
@@ -3628,7 +3642,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>215</v>
       </c>
@@ -3645,7 +3659,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>216</v>
       </c>
@@ -3662,7 +3676,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>217</v>
       </c>
@@ -3679,7 +3693,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>45</v>
       </c>
@@ -3696,7 +3710,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>218</v>
       </c>
@@ -3713,7 +3727,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>219</v>
       </c>
@@ -3730,7 +3744,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>220</v>
       </c>
@@ -3747,7 +3761,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>221</v>
       </c>
@@ -3764,7 +3778,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>46</v>
       </c>
@@ -3781,7 +3795,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>222</v>
       </c>
@@ -3798,7 +3812,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>223</v>
       </c>
@@ -3815,7 +3829,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>224</v>
       </c>
@@ -3832,7 +3846,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>225</v>
       </c>
@@ -3849,7 +3863,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>226</v>
       </c>
@@ -3866,7 +3880,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>227</v>
       </c>
@@ -3883,7 +3897,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>228</v>
       </c>
@@ -3900,7 +3914,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>47</v>
       </c>
@@ -3917,7 +3931,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>229</v>
       </c>
@@ -3934,7 +3948,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>225</v>
       </c>
@@ -3951,7 +3965,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>230</v>
       </c>
@@ -3968,7 +3982,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>48</v>
       </c>
@@ -3985,7 +3999,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>231</v>
       </c>
@@ -4002,7 +4016,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>232</v>
       </c>
@@ -4019,7 +4033,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>233</v>
       </c>
@@ -4036,7 +4050,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>234</v>
       </c>
@@ -4053,7 +4067,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>49</v>
       </c>
@@ -4070,7 +4084,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>235</v>
       </c>
@@ -4087,7 +4101,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>236</v>
       </c>
@@ -4104,7 +4118,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>237</v>
       </c>
@@ -4121,7 +4135,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>50</v>
       </c>
@@ -4138,7 +4152,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>238</v>
       </c>
@@ -4155,7 +4169,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>239</v>
       </c>
@@ -4172,7 +4186,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>240</v>
       </c>
@@ -4189,7 +4203,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>241</v>
       </c>
@@ -4206,7 +4220,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>242</v>
       </c>
@@ -4223,7 +4237,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>243</v>
       </c>
@@ -4240,7 +4254,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>244</v>
       </c>
@@ -4257,7 +4271,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>51</v>
       </c>
@@ -4274,7 +4288,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>245</v>
       </c>
@@ -4291,7 +4305,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>246</v>
       </c>
@@ -4308,7 +4322,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>247</v>
       </c>
@@ -4325,7 +4339,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>248</v>
       </c>
@@ -4342,7 +4356,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>51</v>
       </c>
@@ -4359,7 +4373,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>249</v>
       </c>
@@ -4376,7 +4390,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>250</v>
       </c>
@@ -4393,7 +4407,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>52</v>
       </c>
@@ -4410,7 +4424,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>251</v>
       </c>
@@ -4427,7 +4441,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>252</v>
       </c>
@@ -4444,7 +4458,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>253</v>
       </c>
@@ -4461,7 +4475,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>254</v>
       </c>
@@ -4478,7 +4492,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>255</v>
       </c>
@@ -4495,7 +4509,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>256</v>
       </c>
@@ -4512,7 +4526,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>53</v>
       </c>
@@ -4529,7 +4543,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>257</v>
       </c>
@@ -4546,7 +4560,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>258</v>
       </c>
@@ -4563,7 +4577,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>54</v>
       </c>
@@ -4580,7 +4594,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>259</v>
       </c>
@@ -4597,7 +4611,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>260</v>
       </c>
@@ -4614,7 +4628,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>259</v>
       </c>
@@ -4631,7 +4645,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>260</v>
       </c>
@@ -4648,7 +4662,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>55</v>
       </c>
@@ -4665,7 +4679,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>261</v>
       </c>
@@ -4682,7 +4696,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>262</v>
       </c>
@@ -4699,7 +4713,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>60</v>
       </c>
@@ -4716,7 +4730,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>263</v>
       </c>
@@ -4733,7 +4747,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>264</v>
       </c>
@@ -4750,7 +4764,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>56</v>
       </c>
@@ -4767,7 +4781,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>265</v>
       </c>
@@ -4784,7 +4798,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>266</v>
       </c>
@@ -4801,7 +4815,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>267</v>
       </c>
@@ -4818,7 +4832,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>268</v>
       </c>
@@ -4835,7 +4849,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>57</v>
       </c>
@@ -4852,7 +4866,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>269</v>
       </c>
@@ -4869,7 +4883,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>270</v>
       </c>
@@ -4886,7 +4900,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>271</v>
       </c>
@@ -4903,7 +4917,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>58</v>
       </c>
@@ -4920,7 +4934,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>59</v>
       </c>
@@ -4937,7 +4951,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>59</v>
       </c>
@@ -4954,7 +4968,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>272</v>
       </c>
@@ -4971,7 +4985,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>60</v>
       </c>
@@ -4988,7 +5002,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>273</v>
       </c>
@@ -5005,7 +5019,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>274</v>
       </c>
@@ -5022,7 +5036,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>275</v>
       </c>
@@ -5039,7 +5053,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>276</v>
       </c>
@@ -5056,7 +5070,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>277</v>
       </c>
@@ -5073,7 +5087,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>278</v>
       </c>
@@ -5090,7 +5104,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>281</v>
       </c>
@@ -5107,7 +5121,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>282</v>
       </c>
@@ -5124,7 +5138,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>284</v>
       </c>
@@ -5141,7 +5155,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>286</v>
       </c>
@@ -5158,7 +5172,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>288</v>
       </c>
@@ -5175,43 +5189,43 @@
         <v>280</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="B205" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C205" t="s">
         <v>279</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E205" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>290</v>
+        <v>445</v>
       </c>
       <c r="B206" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C206" t="s">
         <v>279</v>
       </c>
-      <c r="D206" t="s">
-        <v>124</v>
+      <c r="D206">
+        <v>1</v>
       </c>
       <c r="E206" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B207" t="s">
         <v>103</v>
@@ -5219,16 +5233,16 @@
       <c r="C207" t="s">
         <v>279</v>
       </c>
-      <c r="D207" t="s">
-        <v>126</v>
+      <c r="D207">
+        <v>0</v>
       </c>
       <c r="E207" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B208" t="s">
         <v>103</v>
@@ -5240,12 +5254,12 @@
         <v>124</v>
       </c>
       <c r="E208" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B209" t="s">
         <v>103</v>
@@ -5254,15 +5268,15 @@
         <v>279</v>
       </c>
       <c r="D209" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E209" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B210" t="s">
         <v>103</v>
@@ -5271,15 +5285,15 @@
         <v>279</v>
       </c>
       <c r="D210" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E210" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B211" t="s">
         <v>103</v>
@@ -5291,12 +5305,12 @@
         <v>124</v>
       </c>
       <c r="E211" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B212" t="s">
         <v>103</v>
@@ -5311,9 +5325,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B213" t="s">
         <v>103</v>
@@ -5325,12 +5339,12 @@
         <v>124</v>
       </c>
       <c r="E213" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B214" t="s">
         <v>103</v>
@@ -5339,100 +5353,100 @@
         <v>279</v>
       </c>
       <c r="D214" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E214" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>298</v>
+      </c>
+      <c r="B215" t="s">
+        <v>103</v>
+      </c>
+      <c r="C215" t="s">
+        <v>279</v>
+      </c>
+      <c r="D215" t="s">
+        <v>124</v>
+      </c>
+      <c r="E215" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>299</v>
+      </c>
+      <c r="B216" t="s">
+        <v>103</v>
+      </c>
+      <c r="C216" t="s">
+        <v>279</v>
+      </c>
+      <c r="D216" t="s">
+        <v>124</v>
+      </c>
+      <c r="E216" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>441</v>
+      </c>
+      <c r="B217" t="s">
+        <v>103</v>
+      </c>
+      <c r="C217" t="s">
+        <v>279</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>442</v>
+      </c>
+      <c r="B218" t="s">
+        <v>103</v>
+      </c>
+      <c r="C218" t="s">
+        <v>279</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>443</v>
+      </c>
+      <c r="B219" t="s">
+        <v>103</v>
+      </c>
+      <c r="C219" t="s">
+        <v>279</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
         <v>301</v>
-      </c>
-      <c r="B215" t="s">
-        <v>104</v>
-      </c>
-      <c r="C215" t="s">
-        <v>302</v>
-      </c>
-      <c r="D215">
-        <v>0</v>
-      </c>
-      <c r="E215" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>303</v>
-      </c>
-      <c r="B216" t="s">
-        <v>104</v>
-      </c>
-      <c r="C216" t="s">
-        <v>302</v>
-      </c>
-      <c r="D216" t="s">
-        <v>124</v>
-      </c>
-      <c r="E216" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>304</v>
-      </c>
-      <c r="B217" t="s">
-        <v>104</v>
-      </c>
-      <c r="C217" t="s">
-        <v>302</v>
-      </c>
-      <c r="D217" t="s">
-        <v>124</v>
-      </c>
-      <c r="E217" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>305</v>
-      </c>
-      <c r="B218" t="s">
-        <v>104</v>
-      </c>
-      <c r="C218" t="s">
-        <v>302</v>
-      </c>
-      <c r="D218" t="s">
-        <v>124</v>
-      </c>
-      <c r="E218" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>306</v>
-      </c>
-      <c r="B219" t="s">
-        <v>104</v>
-      </c>
-      <c r="C219" t="s">
-        <v>302</v>
-      </c>
-      <c r="D219" t="s">
-        <v>124</v>
-      </c>
-      <c r="E219" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>308</v>
       </c>
       <c r="B220" t="s">
         <v>104</v>
@@ -5440,16 +5454,16 @@
       <c r="C220" t="s">
         <v>302</v>
       </c>
-      <c r="D220" t="s">
-        <v>124</v>
+      <c r="D220">
+        <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B221" t="s">
         <v>104</v>
@@ -5461,12 +5475,12 @@
         <v>124</v>
       </c>
       <c r="E221" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B222" t="s">
         <v>104</v>
@@ -5478,12 +5492,12 @@
         <v>124</v>
       </c>
       <c r="E222" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B223" t="s">
         <v>104</v>
@@ -5495,12 +5509,12 @@
         <v>124</v>
       </c>
       <c r="E223" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B224" t="s">
         <v>104</v>
@@ -5509,15 +5523,15 @@
         <v>302</v>
       </c>
       <c r="D224" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E224" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B225" t="s">
         <v>104</v>
@@ -5529,12 +5543,12 @@
         <v>124</v>
       </c>
       <c r="E225" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B226" t="s">
         <v>104</v>
@@ -5546,12 +5560,12 @@
         <v>124</v>
       </c>
       <c r="E226" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B227" t="s">
         <v>104</v>
@@ -5563,12 +5577,12 @@
         <v>124</v>
       </c>
       <c r="E227" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B228" t="s">
         <v>104</v>
@@ -5580,12 +5594,12 @@
         <v>124</v>
       </c>
       <c r="E228" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B229" t="s">
         <v>104</v>
@@ -5600,9 +5614,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B230" t="s">
         <v>104</v>
@@ -5617,9 +5631,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B231" t="s">
         <v>104</v>
@@ -5631,12 +5645,12 @@
         <v>124</v>
       </c>
       <c r="E231" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B232" t="s">
         <v>104</v>
@@ -5648,12 +5662,12 @@
         <v>124</v>
       </c>
       <c r="E232" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B233" t="s">
         <v>104</v>
@@ -5662,15 +5676,15 @@
         <v>302</v>
       </c>
       <c r="D233" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E233" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B234" t="s">
         <v>104</v>
@@ -5679,15 +5693,15 @@
         <v>302</v>
       </c>
       <c r="D234" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E234" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B235" t="s">
         <v>104</v>
@@ -5699,97 +5713,97 @@
         <v>124</v>
       </c>
       <c r="E235" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>323</v>
+      </c>
+      <c r="B236" t="s">
+        <v>104</v>
+      </c>
+      <c r="C236" t="s">
+        <v>302</v>
+      </c>
+      <c r="D236" t="s">
+        <v>124</v>
+      </c>
+      <c r="E236" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>324</v>
+      </c>
+      <c r="B237" t="s">
+        <v>104</v>
+      </c>
+      <c r="C237" t="s">
+        <v>302</v>
+      </c>
+      <c r="D237" t="s">
+        <v>124</v>
+      </c>
+      <c r="E237" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>325</v>
+      </c>
+      <c r="B238" t="s">
+        <v>104</v>
+      </c>
+      <c r="C238" t="s">
+        <v>302</v>
+      </c>
+      <c r="D238" t="s">
+        <v>126</v>
+      </c>
+      <c r="E238" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>326</v>
+      </c>
+      <c r="B239" t="s">
+        <v>104</v>
+      </c>
+      <c r="C239" t="s">
+        <v>302</v>
+      </c>
+      <c r="D239" t="s">
+        <v>124</v>
+      </c>
+      <c r="E239" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>327</v>
+      </c>
+      <c r="B240" t="s">
+        <v>104</v>
+      </c>
+      <c r="C240" t="s">
+        <v>302</v>
+      </c>
+      <c r="D240" t="s">
+        <v>124</v>
+      </c>
+      <c r="E240" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
         <v>328</v>
-      </c>
-      <c r="B236" t="s">
-        <v>105</v>
-      </c>
-      <c r="C236" t="s">
-        <v>74</v>
-      </c>
-      <c r="D236">
-        <v>0</v>
-      </c>
-      <c r="E236" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>329</v>
-      </c>
-      <c r="B237" t="s">
-        <v>105</v>
-      </c>
-      <c r="C237" t="s">
-        <v>74</v>
-      </c>
-      <c r="D237" t="s">
-        <v>124</v>
-      </c>
-      <c r="E237" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>330</v>
-      </c>
-      <c r="B238" t="s">
-        <v>105</v>
-      </c>
-      <c r="C238" t="s">
-        <v>74</v>
-      </c>
-      <c r="D238" t="s">
-        <v>124</v>
-      </c>
-      <c r="E238" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>331</v>
-      </c>
-      <c r="B239" t="s">
-        <v>105</v>
-      </c>
-      <c r="C239" t="s">
-        <v>74</v>
-      </c>
-      <c r="D239" t="s">
-        <v>124</v>
-      </c>
-      <c r="E239" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>332</v>
-      </c>
-      <c r="B240" t="s">
-        <v>105</v>
-      </c>
-      <c r="C240" t="s">
-        <v>74</v>
-      </c>
-      <c r="D240" t="s">
-        <v>124</v>
-      </c>
-      <c r="E240" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>333</v>
       </c>
       <c r="B241" t="s">
         <v>105</v>
@@ -5797,16 +5811,16 @@
       <c r="C241" t="s">
         <v>74</v>
       </c>
-      <c r="D241" t="s">
-        <v>126</v>
+      <c r="D241">
+        <v>0</v>
       </c>
       <c r="E241" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B242" t="s">
         <v>105</v>
@@ -5818,12 +5832,12 @@
         <v>124</v>
       </c>
       <c r="E242" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B243" t="s">
         <v>105</v>
@@ -5832,15 +5846,15 @@
         <v>74</v>
       </c>
       <c r="D243" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E243" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B244" t="s">
         <v>105</v>
@@ -5852,12 +5866,12 @@
         <v>124</v>
       </c>
       <c r="E244" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B245" t="s">
         <v>105</v>
@@ -5866,15 +5880,15 @@
         <v>74</v>
       </c>
       <c r="D245" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E245" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B246" t="s">
         <v>105</v>
@@ -5883,15 +5897,15 @@
         <v>74</v>
       </c>
       <c r="D246" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E246" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B247" t="s">
         <v>105</v>
@@ -5903,12 +5917,12 @@
         <v>124</v>
       </c>
       <c r="E247" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B248" t="s">
         <v>105</v>
@@ -5917,35 +5931,35 @@
         <v>74</v>
       </c>
       <c r="D248" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E248" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B249" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C249" t="s">
         <v>74</v>
       </c>
-      <c r="D249">
-        <v>0</v>
+      <c r="D249" t="s">
+        <v>124</v>
       </c>
       <c r="E249" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B250" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C250" t="s">
         <v>74</v>
@@ -5957,12 +5971,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B251" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C251" t="s">
         <v>74</v>
@@ -5971,15 +5985,15 @@
         <v>124</v>
       </c>
       <c r="E251" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B252" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C252" t="s">
         <v>74</v>
@@ -5988,15 +6002,15 @@
         <v>124</v>
       </c>
       <c r="E252" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B253" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C253" t="s">
         <v>74</v>
@@ -6005,12 +6019,12 @@
         <v>124</v>
       </c>
       <c r="E253" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B254" t="s">
         <v>106</v>
@@ -6018,16 +6032,16 @@
       <c r="C254" t="s">
         <v>74</v>
       </c>
-      <c r="D254" t="s">
-        <v>124</v>
+      <c r="D254">
+        <v>0</v>
       </c>
       <c r="E254" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B255" t="s">
         <v>106</v>
@@ -6036,100 +6050,100 @@
         <v>74</v>
       </c>
       <c r="D255" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E255" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>343</v>
+      </c>
+      <c r="B256" t="s">
+        <v>106</v>
+      </c>
+      <c r="C256" t="s">
+        <v>74</v>
+      </c>
+      <c r="D256" t="s">
+        <v>124</v>
+      </c>
+      <c r="E256" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>344</v>
+      </c>
+      <c r="B257" t="s">
+        <v>106</v>
+      </c>
+      <c r="C257" t="s">
+        <v>74</v>
+      </c>
+      <c r="D257" t="s">
+        <v>124</v>
+      </c>
+      <c r="E257" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>345</v>
+      </c>
+      <c r="B258" t="s">
+        <v>106</v>
+      </c>
+      <c r="C258" t="s">
+        <v>74</v>
+      </c>
+      <c r="D258" t="s">
+        <v>124</v>
+      </c>
+      <c r="E258" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>346</v>
+      </c>
+      <c r="B259" t="s">
+        <v>106</v>
+      </c>
+      <c r="C259" t="s">
+        <v>74</v>
+      </c>
+      <c r="D259" t="s">
+        <v>124</v>
+      </c>
+      <c r="E259" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>347</v>
+      </c>
+      <c r="B260" t="s">
+        <v>106</v>
+      </c>
+      <c r="C260" t="s">
+        <v>74</v>
+      </c>
+      <c r="D260" t="s">
+        <v>124</v>
+      </c>
+      <c r="E260" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
         <v>348</v>
-      </c>
-      <c r="B256" t="s">
-        <v>107</v>
-      </c>
-      <c r="C256" t="s">
-        <v>107</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
-      <c r="E256" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>349</v>
-      </c>
-      <c r="B257" t="s">
-        <v>107</v>
-      </c>
-      <c r="C257" t="s">
-        <v>107</v>
-      </c>
-      <c r="D257" t="s">
-        <v>124</v>
-      </c>
-      <c r="E257" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>350</v>
-      </c>
-      <c r="B258" t="s">
-        <v>107</v>
-      </c>
-      <c r="C258" t="s">
-        <v>107</v>
-      </c>
-      <c r="D258" t="s">
-        <v>124</v>
-      </c>
-      <c r="E258" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>351</v>
-      </c>
-      <c r="B259" t="s">
-        <v>107</v>
-      </c>
-      <c r="C259" t="s">
-        <v>107</v>
-      </c>
-      <c r="D259" t="s">
-        <v>124</v>
-      </c>
-      <c r="E259" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>352</v>
-      </c>
-      <c r="B260" t="s">
-        <v>107</v>
-      </c>
-      <c r="C260" t="s">
-        <v>107</v>
-      </c>
-      <c r="D260" t="s">
-        <v>124</v>
-      </c>
-      <c r="E260" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>353</v>
       </c>
       <c r="B261" t="s">
         <v>107</v>
@@ -6137,16 +6151,16 @@
       <c r="C261" t="s">
         <v>107</v>
       </c>
-      <c r="D261" t="s">
-        <v>126</v>
+      <c r="D261">
+        <v>0</v>
       </c>
       <c r="E261" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B262" t="s">
         <v>107</v>
@@ -6158,12 +6172,12 @@
         <v>124</v>
       </c>
       <c r="E262" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B263" t="s">
         <v>107</v>
@@ -6178,9 +6192,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B264" t="s">
         <v>107</v>
@@ -6192,12 +6206,12 @@
         <v>124</v>
       </c>
       <c r="E264" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B265" t="s">
         <v>107</v>
@@ -6209,12 +6223,12 @@
         <v>124</v>
       </c>
       <c r="E265" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B266" t="s">
         <v>107</v>
@@ -6229,7 +6243,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>354</v>
       </c>
@@ -6246,7 +6260,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>355</v>
       </c>
@@ -6263,9 +6277,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B269" t="s">
         <v>107</v>
@@ -6277,12 +6291,12 @@
         <v>124</v>
       </c>
       <c r="E269" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B270" t="s">
         <v>107</v>
@@ -6294,12 +6308,12 @@
         <v>124</v>
       </c>
       <c r="E270" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B271" t="s">
         <v>107</v>
@@ -6308,15 +6322,15 @@
         <v>107</v>
       </c>
       <c r="D271" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E271" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B272" t="s">
         <v>107</v>
@@ -6325,15 +6339,15 @@
         <v>107</v>
       </c>
       <c r="D272" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E272" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B273" t="s">
         <v>107</v>
@@ -6348,9 +6362,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B274" t="s">
         <v>107</v>
@@ -6362,86 +6376,86 @@
         <v>124</v>
       </c>
       <c r="E274" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B275" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C275" t="s">
-        <v>366</v>
-      </c>
-      <c r="D275">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="D275" t="s">
+        <v>124</v>
       </c>
       <c r="E275" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>361</v>
+      </c>
+      <c r="B276" t="s">
+        <v>107</v>
+      </c>
+      <c r="C276" t="s">
+        <v>107</v>
+      </c>
+      <c r="D276" t="s">
+        <v>124</v>
+      </c>
+      <c r="E276" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>362</v>
+      </c>
+      <c r="B277" t="s">
+        <v>107</v>
+      </c>
+      <c r="C277" t="s">
+        <v>107</v>
+      </c>
+      <c r="D277" t="s">
+        <v>126</v>
+      </c>
+      <c r="E277" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>367</v>
-      </c>
-      <c r="B276" t="s">
-        <v>108</v>
-      </c>
-      <c r="C276" t="s">
-        <v>366</v>
-      </c>
-      <c r="D276" t="s">
-        <v>124</v>
-      </c>
-      <c r="E276" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>368</v>
-      </c>
-      <c r="B277" t="s">
-        <v>108</v>
-      </c>
-      <c r="C277" t="s">
-        <v>366</v>
-      </c>
-      <c r="D277" t="s">
-        <v>124</v>
-      </c>
-      <c r="E277" t="s">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>363</v>
+      </c>
+      <c r="B278" t="s">
+        <v>107</v>
+      </c>
+      <c r="C278" t="s">
+        <v>107</v>
+      </c>
+      <c r="D278" t="s">
+        <v>124</v>
+      </c>
+      <c r="E278" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>369</v>
-      </c>
-      <c r="B278" t="s">
-        <v>108</v>
-      </c>
-      <c r="C278" t="s">
-        <v>366</v>
-      </c>
-      <c r="D278" t="s">
-        <v>124</v>
-      </c>
-      <c r="E278" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B279" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C279" t="s">
-        <v>366</v>
+        <v>107</v>
       </c>
       <c r="D279" t="s">
         <v>124</v>
@@ -6450,9 +6464,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B280" t="s">
         <v>108</v>
@@ -6460,16 +6474,16 @@
       <c r="C280" t="s">
         <v>366</v>
       </c>
-      <c r="D280" t="s">
-        <v>124</v>
+      <c r="D280">
+        <v>0</v>
       </c>
       <c r="E280" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B281" t="s">
         <v>108</v>
@@ -6478,15 +6492,15 @@
         <v>366</v>
       </c>
       <c r="D281" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E281" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B282" t="s">
         <v>108</v>
@@ -6498,12 +6512,12 @@
         <v>124</v>
       </c>
       <c r="E282" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B283" t="s">
         <v>108</v>
@@ -6515,12 +6529,12 @@
         <v>124</v>
       </c>
       <c r="E283" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B284" t="s">
         <v>108</v>
@@ -6532,12 +6546,12 @@
         <v>124</v>
       </c>
       <c r="E284" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B285" t="s">
         <v>108</v>
@@ -6549,12 +6563,12 @@
         <v>124</v>
       </c>
       <c r="E285" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B286" t="s">
         <v>108</v>
@@ -6563,15 +6577,15 @@
         <v>366</v>
       </c>
       <c r="D286" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E286" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B287" t="s">
         <v>108</v>
@@ -6580,15 +6594,15 @@
         <v>366</v>
       </c>
       <c r="D287" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E287" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B288" t="s">
         <v>108</v>
@@ -6600,12 +6614,12 @@
         <v>124</v>
       </c>
       <c r="E288" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B289" t="s">
         <v>108</v>
@@ -6617,12 +6631,12 @@
         <v>124</v>
       </c>
       <c r="E289" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B290" t="s">
         <v>108</v>
@@ -6634,12 +6648,12 @@
         <v>124</v>
       </c>
       <c r="E290" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B291" t="s">
         <v>108</v>
@@ -6651,12 +6665,12 @@
         <v>124</v>
       </c>
       <c r="E291" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B292" t="s">
         <v>108</v>
@@ -6665,15 +6679,15 @@
         <v>366</v>
       </c>
       <c r="D292" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E292" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B293" t="s">
         <v>108</v>
@@ -6682,15 +6696,15 @@
         <v>366</v>
       </c>
       <c r="D293" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E293" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B294" t="s">
         <v>108</v>
@@ -6702,12 +6716,12 @@
         <v>124</v>
       </c>
       <c r="E294" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B295" t="s">
         <v>108</v>
@@ -6719,12 +6733,12 @@
         <v>124</v>
       </c>
       <c r="E295" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B296" t="s">
         <v>108</v>
@@ -6736,97 +6750,97 @@
         <v>124</v>
       </c>
       <c r="E296" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>383</v>
+      </c>
+      <c r="B297" t="s">
+        <v>108</v>
+      </c>
+      <c r="C297" t="s">
+        <v>366</v>
+      </c>
+      <c r="D297" t="s">
+        <v>124</v>
+      </c>
+      <c r="E297" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>384</v>
+      </c>
+      <c r="B298" t="s">
+        <v>108</v>
+      </c>
+      <c r="C298" t="s">
+        <v>366</v>
+      </c>
+      <c r="D298" t="s">
+        <v>126</v>
+      </c>
+      <c r="E298" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>385</v>
+      </c>
+      <c r="B299" t="s">
+        <v>108</v>
+      </c>
+      <c r="C299" t="s">
+        <v>366</v>
+      </c>
+      <c r="D299" t="s">
+        <v>124</v>
+      </c>
+      <c r="E299" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>386</v>
+      </c>
+      <c r="B300" t="s">
+        <v>108</v>
+      </c>
+      <c r="C300" t="s">
+        <v>366</v>
+      </c>
+      <c r="D300" t="s">
+        <v>124</v>
+      </c>
+      <c r="E300" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>387</v>
+      </c>
+      <c r="B301" t="s">
+        <v>108</v>
+      </c>
+      <c r="C301" t="s">
+        <v>366</v>
+      </c>
+      <c r="D301" t="s">
+        <v>124</v>
+      </c>
+      <c r="E301" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
         <v>388</v>
-      </c>
-      <c r="B297" t="s">
-        <v>109</v>
-      </c>
-      <c r="C297" t="s">
-        <v>76</v>
-      </c>
-      <c r="D297">
-        <v>0</v>
-      </c>
-      <c r="E297" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>389</v>
-      </c>
-      <c r="B298" t="s">
-        <v>109</v>
-      </c>
-      <c r="C298" t="s">
-        <v>76</v>
-      </c>
-      <c r="D298" t="s">
-        <v>124</v>
-      </c>
-      <c r="E298" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>390</v>
-      </c>
-      <c r="B299" t="s">
-        <v>109</v>
-      </c>
-      <c r="C299" t="s">
-        <v>76</v>
-      </c>
-      <c r="D299" t="s">
-        <v>124</v>
-      </c>
-      <c r="E299" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>391</v>
-      </c>
-      <c r="B300" t="s">
-        <v>109</v>
-      </c>
-      <c r="C300" t="s">
-        <v>76</v>
-      </c>
-      <c r="D300" t="s">
-        <v>124</v>
-      </c>
-      <c r="E300" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>392</v>
-      </c>
-      <c r="B301" t="s">
-        <v>109</v>
-      </c>
-      <c r="C301" t="s">
-        <v>76</v>
-      </c>
-      <c r="D301" t="s">
-        <v>124</v>
-      </c>
-      <c r="E301" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>393</v>
       </c>
       <c r="B302" t="s">
         <v>109</v>
@@ -6834,16 +6848,16 @@
       <c r="C302" t="s">
         <v>76</v>
       </c>
-      <c r="D302" t="s">
-        <v>124</v>
+      <c r="D302">
+        <v>0</v>
       </c>
       <c r="E302" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B303" t="s">
         <v>109</v>
@@ -6852,15 +6866,15 @@
         <v>76</v>
       </c>
       <c r="D303" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E303" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B304" t="s">
         <v>109</v>
@@ -6872,12 +6886,12 @@
         <v>124</v>
       </c>
       <c r="E304" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B305" t="s">
         <v>109</v>
@@ -6889,12 +6903,12 @@
         <v>124</v>
       </c>
       <c r="E305" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B306" t="s">
         <v>109</v>
@@ -6903,15 +6917,15 @@
         <v>76</v>
       </c>
       <c r="D306" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E306" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B307" t="s">
         <v>109</v>
@@ -6923,12 +6937,12 @@
         <v>124</v>
       </c>
       <c r="E307" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B308" t="s">
         <v>109</v>
@@ -6943,9 +6957,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B309" t="s">
         <v>109</v>
@@ -6957,12 +6971,12 @@
         <v>124</v>
       </c>
       <c r="E309" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B310" t="s">
         <v>109</v>
@@ -6974,12 +6988,12 @@
         <v>124</v>
       </c>
       <c r="E310" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B311" t="s">
         <v>109</v>
@@ -6988,15 +7002,15 @@
         <v>76</v>
       </c>
       <c r="D311" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E311" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B312" t="s">
         <v>109</v>
@@ -7008,97 +7022,97 @@
         <v>124</v>
       </c>
       <c r="E312" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B313" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C313" t="s">
-        <v>73</v>
-      </c>
-      <c r="D313">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="D313" t="s">
+        <v>126</v>
       </c>
       <c r="E313" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B314" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C314" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D314" t="s">
         <v>124</v>
       </c>
       <c r="E314" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B315" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C315" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D315" t="s">
         <v>124</v>
       </c>
       <c r="E315" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B316" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C316" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D316" t="s">
         <v>124</v>
       </c>
       <c r="E316" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B317" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C317" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D317" t="s">
         <v>124</v>
       </c>
       <c r="E317" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B318" t="s">
         <v>110</v>
@@ -7106,16 +7120,16 @@
       <c r="C318" t="s">
         <v>73</v>
       </c>
-      <c r="D318" t="s">
-        <v>124</v>
+      <c r="D318">
+        <v>0</v>
       </c>
       <c r="E318" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B319" t="s">
         <v>110</v>
@@ -7127,12 +7141,12 @@
         <v>124</v>
       </c>
       <c r="E319" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B320" t="s">
         <v>110</v>
@@ -7144,12 +7158,12 @@
         <v>124</v>
       </c>
       <c r="E320" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B321" t="s">
         <v>110</v>
@@ -7161,12 +7175,12 @@
         <v>124</v>
       </c>
       <c r="E321" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B322" t="s">
         <v>110</v>
@@ -7175,15 +7189,15 @@
         <v>73</v>
       </c>
       <c r="D322" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E322" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B323" t="s">
         <v>110</v>
@@ -7195,12 +7209,12 @@
         <v>124</v>
       </c>
       <c r="E323" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B324" t="s">
         <v>110</v>
@@ -7212,12 +7226,12 @@
         <v>124</v>
       </c>
       <c r="E324" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B325" t="s">
         <v>110</v>
@@ -7229,12 +7243,12 @@
         <v>124</v>
       </c>
       <c r="E325" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B326" t="s">
         <v>110</v>
@@ -7243,15 +7257,15 @@
         <v>73</v>
       </c>
       <c r="D326" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E326" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B327" t="s">
         <v>110</v>
@@ -7260,15 +7274,15 @@
         <v>73</v>
       </c>
       <c r="D327" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E327" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B328" t="s">
         <v>110</v>
@@ -7280,12 +7294,12 @@
         <v>124</v>
       </c>
       <c r="E328" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B329" t="s">
         <v>110</v>
@@ -7294,15 +7308,15 @@
         <v>73</v>
       </c>
       <c r="D329" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E329" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B330" t="s">
         <v>110</v>
@@ -7314,97 +7328,97 @@
         <v>124</v>
       </c>
       <c r="E330" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B331" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C331" t="s">
-        <v>72</v>
-      </c>
-      <c r="D331">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="D331" t="s">
+        <v>126</v>
       </c>
       <c r="E331" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B332" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C332" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D332" t="s">
         <v>124</v>
       </c>
       <c r="E332" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B333" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C333" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D333" t="s">
         <v>124</v>
       </c>
       <c r="E333" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B334" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C334" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D334" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E334" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B335" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C335" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D335" t="s">
         <v>124</v>
       </c>
       <c r="E335" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B336" t="s">
         <v>111</v>
@@ -7412,16 +7426,16 @@
       <c r="C336" t="s">
         <v>72</v>
       </c>
-      <c r="D336" t="s">
-        <v>126</v>
+      <c r="D336">
+        <v>0</v>
       </c>
       <c r="E336" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B337" t="s">
         <v>111</v>
@@ -7436,9 +7450,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B338" t="s">
         <v>111</v>
@@ -7453,9 +7467,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B339" t="s">
         <v>111</v>
@@ -7464,15 +7478,15 @@
         <v>72</v>
       </c>
       <c r="D339" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E339" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B340" t="s">
         <v>111</v>
@@ -7484,12 +7498,12 @@
         <v>124</v>
       </c>
       <c r="E340" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B341" t="s">
         <v>111</v>
@@ -7498,100 +7512,100 @@
         <v>72</v>
       </c>
       <c r="D341" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E341" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>428</v>
+      </c>
+      <c r="B342" t="s">
+        <v>111</v>
+      </c>
+      <c r="C342" t="s">
+        <v>72</v>
+      </c>
+      <c r="D342" t="s">
+        <v>124</v>
+      </c>
+      <c r="E342" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>429</v>
+      </c>
+      <c r="B343" t="s">
+        <v>111</v>
+      </c>
+      <c r="C343" t="s">
+        <v>72</v>
+      </c>
+      <c r="D343" t="s">
+        <v>124</v>
+      </c>
+      <c r="E343" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>430</v>
+      </c>
+      <c r="B344" t="s">
+        <v>111</v>
+      </c>
+      <c r="C344" t="s">
+        <v>72</v>
+      </c>
+      <c r="D344" t="s">
+        <v>126</v>
+      </c>
+      <c r="E344" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>431</v>
+      </c>
+      <c r="B345" t="s">
+        <v>111</v>
+      </c>
+      <c r="C345" t="s">
+        <v>72</v>
+      </c>
+      <c r="D345" t="s">
+        <v>124</v>
+      </c>
+      <c r="E345" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>432</v>
+      </c>
+      <c r="B346" t="s">
+        <v>111</v>
+      </c>
+      <c r="C346" t="s">
+        <v>72</v>
+      </c>
+      <c r="D346" t="s">
+        <v>124</v>
+      </c>
+      <c r="E346" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
         <v>79</v>
-      </c>
-      <c r="B342" t="s">
-        <v>92</v>
-      </c>
-      <c r="C342" t="s">
-        <v>91</v>
-      </c>
-      <c r="D342">
-        <v>0</v>
-      </c>
-      <c r="E342" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>80</v>
-      </c>
-      <c r="B343" t="s">
-        <v>92</v>
-      </c>
-      <c r="C343" t="s">
-        <v>91</v>
-      </c>
-      <c r="D343">
-        <v>1</v>
-      </c>
-      <c r="E343" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>81</v>
-      </c>
-      <c r="B344" t="s">
-        <v>92</v>
-      </c>
-      <c r="C344" t="s">
-        <v>91</v>
-      </c>
-      <c r="D344">
-        <v>1</v>
-      </c>
-      <c r="E344" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>82</v>
-      </c>
-      <c r="B345" t="s">
-        <v>92</v>
-      </c>
-      <c r="C345" t="s">
-        <v>91</v>
-      </c>
-      <c r="D345">
-        <v>1</v>
-      </c>
-      <c r="E345" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>83</v>
-      </c>
-      <c r="B346" t="s">
-        <v>92</v>
-      </c>
-      <c r="C346" t="s">
-        <v>91</v>
-      </c>
-      <c r="D346">
-        <v>1</v>
-      </c>
-      <c r="E346" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>90</v>
       </c>
       <c r="B347" t="s">
         <v>92</v>
@@ -7600,15 +7614,15 @@
         <v>91</v>
       </c>
       <c r="D347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E347" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B348" t="s">
         <v>92</v>
@@ -7623,29 +7637,29 @@
         <v>122</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B349" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C349" t="s">
         <v>91</v>
       </c>
       <c r="D349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E349" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B350" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C350" t="s">
         <v>91</v>
@@ -7657,12 +7671,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B351" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C351" t="s">
         <v>91</v>
@@ -7674,12 +7688,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B352" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C352" t="s">
         <v>91</v>
@@ -7691,12 +7705,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B353" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C353" t="s">
         <v>91</v>
@@ -7708,28 +7722,114 @@
         <v>122</v>
       </c>
     </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>85</v>
+      </c>
+      <c r="B354" t="s">
+        <v>85</v>
+      </c>
+      <c r="C354" t="s">
+        <v>91</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>88</v>
+      </c>
+      <c r="B355" t="s">
+        <v>85</v>
+      </c>
+      <c r="C355" t="s">
+        <v>91</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>86</v>
+      </c>
+      <c r="B356" t="s">
+        <v>85</v>
+      </c>
+      <c r="C356" t="s">
+        <v>91</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>87</v>
+      </c>
+      <c r="B357" t="s">
+        <v>85</v>
+      </c>
+      <c r="C357" t="s">
+        <v>91</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>89</v>
+      </c>
+      <c r="B358" t="s">
+        <v>85</v>
+      </c>
+      <c r="C358" t="s">
+        <v>91</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="79.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="79.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -7743,7 +7843,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -7751,7 +7851,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -7760,7 +7860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -7769,7 +7869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -7783,7 +7883,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -7797,7 +7897,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -7805,7 +7905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -7819,7 +7919,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>92</v>
       </c>
@@ -7827,7 +7927,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
@@ -7835,7 +7935,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -7843,7 +7943,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -7851,7 +7951,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -7859,7 +7959,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -7867,7 +7967,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -7875,7 +7975,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -7883,7 +7983,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -7891,7 +7991,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -7905,7 +8005,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -7919,7 +8019,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -7934,22 +8034,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" customWidth="1"/>
+    <col min="4" max="4" width="40.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -7963,7 +8063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -7974,7 +8074,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -7988,7 +8088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -8002,7 +8102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -8016,7 +8116,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -8030,7 +8130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>68</v>
       </c>

--- a/Agent intent mapping.xlsx
+++ b/Agent intent mapping.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\Assignments\third_year\Bachelor Project\GithubFolder\chatbot-in-danish-streamlit-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="19770" yWindow="2390" windowWidth="17070" windowHeight="11390"/>
+    <workbookView xWindow="19770" yWindow="2385" windowWidth="17070" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Question,Intent" sheetId="3" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="448">
   <si>
     <t>genåbnings tidspunkt</t>
   </si>
@@ -1364,12 +1359,18 @@
   </si>
   <si>
     <t>Kan jeg få mere af vide om all-in</t>
+  </si>
+  <si>
+    <t>fedt</t>
+  </si>
+  <si>
+    <t>cool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1492,7 +1493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1527,7 +1528,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1704,7 +1705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1712,19 +1713,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E358"/>
+  <dimension ref="A1:E360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="B361" sqref="B361"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="43.453125" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="1" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -1891,7 +1892,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>139</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -2112,7 +2113,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -2231,7 +2232,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>154</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -2384,7 +2385,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>156</v>
       </c>
@@ -2401,7 +2402,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>157</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>158</v>
       </c>
@@ -2435,7 +2436,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>159</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>164</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>165</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>166</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>171</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>172</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>173</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>174</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -2775,7 +2776,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>176</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>177</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>178</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>179</v>
       </c>
@@ -2860,7 +2861,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>180</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>181</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>182</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>183</v>
       </c>
@@ -2945,7 +2946,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>184</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>185</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>186</v>
       </c>
@@ -2996,7 +2997,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>187</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>188</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>189</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>191</v>
       </c>
@@ -3115,7 +3116,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>192</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>193</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>194</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>187</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>195</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>196</v>
       </c>
@@ -3234,7 +3235,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>197</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>198</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>199</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>201</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>42</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>202</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>203</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>204</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>205</v>
       </c>
@@ -3438,7 +3439,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>43</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>206</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>209</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>210</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -3574,7 +3575,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>212</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>213</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>214</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>215</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>216</v>
       </c>
@@ -3676,7 +3677,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>217</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>45</v>
       </c>
@@ -3710,7 +3711,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>218</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>219</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>220</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>221</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>46</v>
       </c>
@@ -3795,7 +3796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>222</v>
       </c>
@@ -3812,7 +3813,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>223</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>224</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>225</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>226</v>
       </c>
@@ -3880,7 +3881,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>227</v>
       </c>
@@ -3897,7 +3898,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>228</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>47</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>229</v>
       </c>
@@ -3948,7 +3949,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>225</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>230</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>48</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>231</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>232</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>233</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>234</v>
       </c>
@@ -4067,7 +4068,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>49</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>235</v>
       </c>
@@ -4101,7 +4102,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>236</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>237</v>
       </c>
@@ -4135,7 +4136,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>50</v>
       </c>
@@ -4152,7 +4153,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>238</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>239</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>240</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>241</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>242</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>243</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>244</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>51</v>
       </c>
@@ -4288,7 +4289,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>245</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>246</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>247</v>
       </c>
@@ -4339,7 +4340,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>248</v>
       </c>
@@ -4356,7 +4357,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>51</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>249</v>
       </c>
@@ -4390,7 +4391,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>250</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>52</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>251</v>
       </c>
@@ -4441,7 +4442,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>252</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>253</v>
       </c>
@@ -4475,7 +4476,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>254</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>255</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>256</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>53</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>257</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>258</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>54</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>259</v>
       </c>
@@ -4611,7 +4612,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>260</v>
       </c>
@@ -4628,7 +4629,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>259</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>260</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>55</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>261</v>
       </c>
@@ -4696,7 +4697,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>262</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>60</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>263</v>
       </c>
@@ -4747,7 +4748,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>264</v>
       </c>
@@ -4764,7 +4765,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>56</v>
       </c>
@@ -4781,7 +4782,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>265</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>266</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>267</v>
       </c>
@@ -4832,7 +4833,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>268</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>57</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>269</v>
       </c>
@@ -4883,7 +4884,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>270</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>271</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>58</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>59</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>59</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>272</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>60</v>
       </c>
@@ -5002,7 +5003,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>273</v>
       </c>
@@ -5019,7 +5020,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>274</v>
       </c>
@@ -5036,7 +5037,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>275</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>276</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>277</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>278</v>
       </c>
@@ -5104,7 +5105,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>281</v>
       </c>
@@ -5121,7 +5122,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>282</v>
       </c>
@@ -5138,7 +5139,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>284</v>
       </c>
@@ -5155,7 +5156,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>286</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>288</v>
       </c>
@@ -5189,7 +5190,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>444</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>445</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>289</v>
       </c>
@@ -5240,7 +5241,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>290</v>
       </c>
@@ -5257,7 +5258,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>292</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>293</v>
       </c>
@@ -5291,7 +5292,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>294</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>295</v>
       </c>
@@ -5325,7 +5326,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>296</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>297</v>
       </c>
@@ -5359,7 +5360,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>298</v>
       </c>
@@ -5376,7 +5377,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>299</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>441</v>
       </c>
@@ -5410,7 +5411,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>442</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>443</v>
       </c>
@@ -5444,7 +5445,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>301</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>303</v>
       </c>
@@ -5478,7 +5479,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>304</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>305</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>306</v>
       </c>
@@ -5529,7 +5530,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>308</v>
       </c>
@@ -5546,7 +5547,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>310</v>
       </c>
@@ -5563,7 +5564,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>312</v>
       </c>
@@ -5580,7 +5581,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>314</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>316</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>317</v>
       </c>
@@ -5631,7 +5632,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>318</v>
       </c>
@@ -5648,7 +5649,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>319</v>
       </c>
@@ -5665,7 +5666,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>320</v>
       </c>
@@ -5682,7 +5683,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>321</v>
       </c>
@@ -5699,7 +5700,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>322</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>323</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>324</v>
       </c>
@@ -5750,7 +5751,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>325</v>
       </c>
@@ -5767,7 +5768,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>326</v>
       </c>
@@ -5784,7 +5785,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>327</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>328</v>
       </c>
@@ -5818,7 +5819,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>329</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>330</v>
       </c>
@@ -5852,7 +5853,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>331</v>
       </c>
@@ -5869,7 +5870,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>332</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>333</v>
       </c>
@@ -5903,7 +5904,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>334</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>335</v>
       </c>
@@ -5937,7 +5938,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>336</v>
       </c>
@@ -5954,7 +5955,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>337</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>338</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>339</v>
       </c>
@@ -6005,7 +6006,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>340</v>
       </c>
@@ -6022,7 +6023,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>341</v>
       </c>
@@ -6039,7 +6040,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>342</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>343</v>
       </c>
@@ -6073,7 +6074,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>344</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>345</v>
       </c>
@@ -6107,7 +6108,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>346</v>
       </c>
@@ -6124,7 +6125,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>347</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>348</v>
       </c>
@@ -6158,7 +6159,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>349</v>
       </c>
@@ -6175,7 +6176,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>350</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>351</v>
       </c>
@@ -6209,7 +6210,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>352</v>
       </c>
@@ -6226,7 +6227,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>353</v>
       </c>
@@ -6243,7 +6244,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>354</v>
       </c>
@@ -6260,7 +6261,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>355</v>
       </c>
@@ -6277,7 +6278,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>356</v>
       </c>
@@ -6294,7 +6295,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>357</v>
       </c>
@@ -6311,7 +6312,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>358</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>354</v>
       </c>
@@ -6345,7 +6346,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>355</v>
       </c>
@@ -6362,7 +6363,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>359</v>
       </c>
@@ -6379,7 +6380,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>354</v>
       </c>
@@ -6396,7 +6397,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>361</v>
       </c>
@@ -6413,7 +6414,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>362</v>
       </c>
@@ -6430,7 +6431,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>363</v>
       </c>
@@ -6447,7 +6448,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>364</v>
       </c>
@@ -6464,7 +6465,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>365</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>367</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>368</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>369</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>370</v>
       </c>
@@ -6549,7 +6550,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>371</v>
       </c>
@@ -6566,7 +6567,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>372</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>373</v>
       </c>
@@ -6600,7 +6601,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>374</v>
       </c>
@@ -6617,7 +6618,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>375</v>
       </c>
@@ -6634,7 +6635,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>376</v>
       </c>
@@ -6651,7 +6652,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>370</v>
       </c>
@@ -6668,7 +6669,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>377</v>
       </c>
@@ -6685,7 +6686,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>378</v>
       </c>
@@ -6702,7 +6703,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>379</v>
       </c>
@@ -6719,7 +6720,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>380</v>
       </c>
@@ -6736,7 +6737,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>382</v>
       </c>
@@ -6753,7 +6754,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>383</v>
       </c>
@@ -6770,7 +6771,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>384</v>
       </c>
@@ -6787,7 +6788,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>385</v>
       </c>
@@ -6804,7 +6805,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>386</v>
       </c>
@@ -6821,7 +6822,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>387</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>388</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>389</v>
       </c>
@@ -6872,7 +6873,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>390</v>
       </c>
@@ -6889,7 +6890,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>391</v>
       </c>
@@ -6906,7 +6907,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>392</v>
       </c>
@@ -6923,7 +6924,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>393</v>
       </c>
@@ -6940,7 +6941,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>394</v>
       </c>
@@ -6957,7 +6958,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>395</v>
       </c>
@@ -6974,7 +6975,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>396</v>
       </c>
@@ -6991,7 +6992,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>397</v>
       </c>
@@ -7008,7 +7009,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>398</v>
       </c>
@@ -7025,7 +7026,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>399</v>
       </c>
@@ -7042,7 +7043,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>400</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>401</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>402</v>
       </c>
@@ -7093,7 +7094,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>403</v>
       </c>
@@ -7110,7 +7111,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>404</v>
       </c>
@@ -7127,7 +7128,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>405</v>
       </c>
@@ -7144,7 +7145,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>406</v>
       </c>
@@ -7161,7 +7162,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>407</v>
       </c>
@@ -7178,7 +7179,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>408</v>
       </c>
@@ -7195,7 +7196,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>409</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>410</v>
       </c>
@@ -7229,7 +7230,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>411</v>
       </c>
@@ -7246,7 +7247,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>412</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>413</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>414</v>
       </c>
@@ -7297,7 +7298,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>415</v>
       </c>
@@ -7314,7 +7315,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>416</v>
       </c>
@@ -7331,7 +7332,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>417</v>
       </c>
@@ -7348,7 +7349,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>418</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>419</v>
       </c>
@@ -7382,7 +7383,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>420</v>
       </c>
@@ -7399,7 +7400,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>421</v>
       </c>
@@ -7416,7 +7417,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>422</v>
       </c>
@@ -7433,7 +7434,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>423</v>
       </c>
@@ -7450,7 +7451,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>424</v>
       </c>
@@ -7467,7 +7468,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>425</v>
       </c>
@@ -7484,7 +7485,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>426</v>
       </c>
@@ -7501,7 +7502,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>427</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>428</v>
       </c>
@@ -7535,7 +7536,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>429</v>
       </c>
@@ -7552,7 +7553,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>430</v>
       </c>
@@ -7569,7 +7570,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>431</v>
       </c>
@@ -7586,7 +7587,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>432</v>
       </c>
@@ -7603,7 +7604,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>79</v>
       </c>
@@ -7620,7 +7621,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>80</v>
       </c>
@@ -7637,7 +7638,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>81</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>82</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>83</v>
       </c>
@@ -7688,7 +7689,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>90</v>
       </c>
@@ -7705,7 +7706,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>84</v>
       </c>
@@ -7722,7 +7723,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>85</v>
       </c>
@@ -7739,7 +7740,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>88</v>
       </c>
@@ -7756,7 +7757,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>86</v>
       </c>
@@ -7773,7 +7774,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>87</v>
       </c>
@@ -7790,7 +7791,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>89</v>
       </c>
@@ -7804,6 +7805,40 @@
         <v>1</v>
       </c>
       <c r="E358" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>446</v>
+      </c>
+      <c r="B359" t="s">
+        <v>85</v>
+      </c>
+      <c r="C359" t="s">
+        <v>91</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+      <c r="E359" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>447</v>
+      </c>
+      <c r="B360" t="s">
+        <v>85</v>
+      </c>
+      <c r="C360" t="s">
+        <v>91</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7821,15 +7856,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="46.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="79.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="79.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -7843,7 +7878,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -7851,7 +7886,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -7860,7 +7895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -7869,7 +7904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -7883,7 +7918,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -7897,7 +7932,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -7905,7 +7940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -7919,7 +7954,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>92</v>
       </c>
@@ -7927,7 +7962,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
@@ -7935,7 +7970,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -7943,7 +7978,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -7951,7 +7986,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -7959,7 +7994,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -7967,7 +8002,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -7975,7 +8010,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -7983,7 +8018,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -7991,7 +8026,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -8005,7 +8040,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -8019,7 +8054,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -8041,15 +8076,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" customWidth="1"/>
-    <col min="4" max="4" width="40.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -8063,7 +8098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -8074,7 +8109,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -8088,7 +8123,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -8102,7 +8137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -8116,7 +8151,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -8130,7 +8165,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>

--- a/Agent intent mapping.xlsx
+++ b/Agent intent mapping.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="442">
   <si>
     <t>genåbnings tidspunkt</t>
   </si>
@@ -260,9 +260,6 @@
     <t>intent</t>
   </si>
   <si>
-    <t>God dag</t>
-  </si>
-  <si>
     <t>goddag</t>
   </si>
   <si>
@@ -389,9 +386,6 @@
     <t>Med ALL-IN kan du frit vælge ét produkt pr. døgn fra sortimentet i forbindelse med din træning. Produkterne trækker du i vores hvide ALL-IN-automat, som er placeret i alle de centre, der tilbyder ALL-IN. ALL-IN-produkterne kan løbende blive ændret, og der tages forbehold for udgåede og udsolgte produkter. OBS: Du skal være minimum 15 år for at tilføje ALL-IN til dit medlemskab. Vær opmærksom på, du skal have din betaler med ved oprettelsen.</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hvornår åbner du igen? </t>
   </si>
   <si>
@@ -863,30 +857,18 @@
     <t>ALL-IN</t>
   </si>
   <si>
-    <t>Original</t>
-  </si>
-  <si>
     <t>Hvad får man med ALL-IN?</t>
   </si>
   <si>
     <t xml:space="preserve">Hvad får du med all-in? </t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hvad får du fra all-in? </t>
   </si>
   <si>
-    <t>Russian</t>
-  </si>
-  <si>
     <t>Hvad får jeg med ALL-IN</t>
   </si>
   <si>
-    <t>Embedding</t>
-  </si>
-  <si>
     <t>Hvad er ALL-IN for noget</t>
   </si>
   <si>
@@ -896,9 +878,6 @@
     <t xml:space="preserve">Hvordan kan jeg få all-in? </t>
   </si>
   <si>
-    <t>Italian</t>
-  </si>
-  <si>
     <t>Hvordan opretter jeg ALL-IN?</t>
   </si>
   <si>
@@ -923,9 +902,6 @@
     <t xml:space="preserve">Hvad skal jeg gøre for at blive en del af all-in? </t>
   </si>
   <si>
-    <t>Japanese</t>
-  </si>
-  <si>
     <t>Hvordan tilmelder jeg mig betalingsservice?</t>
   </si>
   <si>
@@ -944,33 +920,18 @@
     <t xml:space="preserve">Hvordan ansøger jeg om en betalingstjeneste? </t>
   </si>
   <si>
-    <t>Thai</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hvordan kan jeg registrere mig for en betalingstjeneste? </t>
   </si>
   <si>
-    <t>French</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hvordan registrerer du betalingstjeneste? </t>
   </si>
   <si>
-    <t>Taiwan Mandarin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hvordan registrerer jeg for betalingstjenesten? </t>
   </si>
   <si>
-    <t>Hebrew</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hvordan tilmelder jeg mig betalingstjenesten? </t>
   </si>
   <si>
-    <t>Zulu</t>
-  </si>
-  <si>
     <t>Hvordan får jeg betalingsservice?</t>
   </si>
   <si>
@@ -1103,9 +1064,6 @@
     <t xml:space="preserve">Hvordan får du en træner? </t>
   </si>
   <si>
-    <t>Hindi</t>
-  </si>
-  <si>
     <t>Hvordan skaffer jeg mig en personlig træner</t>
   </si>
   <si>
@@ -1166,9 +1124,6 @@
     <t xml:space="preserve">Hvordan kan man tilmelde sig træning på holdet? </t>
   </si>
   <si>
-    <t>Icelandic</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hvordan kan man indskrive gruppetræning? </t>
   </si>
   <si>
@@ -1325,9 +1280,6 @@
     <t>tag</t>
   </si>
   <si>
-    <t>meta</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -1361,10 +1313,40 @@
     <t>Kan jeg få mere af vide om all-in</t>
   </si>
   <si>
-    <t>fedt</t>
-  </si>
-  <si>
-    <t>cool</t>
+    <t>tag_group</t>
+  </si>
+  <si>
+    <t>jeg vil gerne have information om all-in</t>
+  </si>
+  <si>
+    <t>kan du informere mig om hvad all-in er?</t>
+  </si>
+  <si>
+    <t>jeg mangler information omkring all-in</t>
+  </si>
+  <si>
+    <t>hvilke ydelser får man med all-in?</t>
+  </si>
+  <si>
+    <t>Hvordan kan jeg komme på holdtræning?</t>
+  </si>
+  <si>
+    <t>farvel og tak</t>
+  </si>
+  <si>
+    <t>godeftermiddag</t>
+  </si>
+  <si>
+    <t>fedt, tak skal du have</t>
+  </si>
+  <si>
+    <t>cool, tak</t>
+  </si>
+  <si>
+    <t>Hvordan laver jeg ændringer eller laver om på mit abnnement?</t>
+  </si>
+  <si>
+    <t>Hvordan fjerner jeg jeres nyhedsbrev e-mails?</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1432,7 +1414,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1705,7 +1686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1713,19 +1694,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E360"/>
+  <dimension ref="A1:E367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="B361" sqref="B361"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="43.42578125" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1736,24 +1718,24 @@
         <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="E1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>122</v>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1769,13 +1751,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>122</v>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1784,15 +1766,15 @@
         <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1801,9 +1783,9 @@
         <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1818,15 +1800,15 @@
         <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -1835,9 +1817,9 @@
         <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1852,15 +1834,15 @@
         <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1869,15 +1851,15 @@
         <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1886,15 +1868,15 @@
         <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1903,15 +1885,15 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1920,15 +1902,15 @@
         <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1937,9 +1919,9 @@
         <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1954,15 +1936,15 @@
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1971,15 +1953,15 @@
         <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -1988,15 +1970,15 @@
         <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -2005,15 +1987,15 @@
         <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -2022,15 +2004,15 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -2039,15 +2021,15 @@
         <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -2056,9 +2038,9 @@
         <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2073,15 +2055,15 @@
         <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -2090,15 +2072,15 @@
         <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -2107,15 +2089,15 @@
         <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -2124,15 +2106,15 @@
         <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -2141,9 +2123,9 @@
         <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2158,15 +2140,15 @@
         <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -2175,15 +2157,15 @@
         <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -2192,15 +2174,15 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -2209,15 +2191,15 @@
         <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -2226,15 +2208,15 @@
         <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -2243,15 +2225,15 @@
         <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -2260,15 +2242,15 @@
         <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -2277,15 +2259,15 @@
         <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -2296,13 +2278,13 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>122</v>
+      <c r="E34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -2311,15 +2293,15 @@
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -2328,15 +2310,15 @@
         <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -2345,15 +2327,15 @@
         <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -2362,15 +2344,15 @@
         <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -2379,15 +2361,15 @@
         <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -2396,15 +2378,15 @@
         <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -2413,15 +2395,15 @@
         <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
-      </c>
-      <c r="E41" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -2430,9 +2412,9 @@
         <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2447,15 +2429,15 @@
         <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -2464,15 +2446,15 @@
         <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -2481,15 +2463,15 @@
         <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -2498,15 +2480,15 @@
         <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
-      </c>
-      <c r="E46" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -2515,15 +2497,15 @@
         <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -2532,15 +2514,15 @@
         <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -2549,15 +2531,15 @@
         <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -2566,9 +2548,9 @@
         <v>72</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2583,15 +2565,15 @@
         <v>72</v>
       </c>
       <c r="D51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E51" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -2600,15 +2582,15 @@
         <v>72</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -2617,15 +2599,15 @@
         <v>72</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -2634,15 +2616,15 @@
         <v>72</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -2651,15 +2633,15 @@
         <v>72</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E55" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -2668,9 +2650,9 @@
         <v>72</v>
       </c>
       <c r="D56" t="s">
-        <v>124</v>
-      </c>
-      <c r="E56" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2685,15 +2667,15 @@
         <v>72</v>
       </c>
       <c r="D57" t="s">
-        <v>126</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E57" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -2702,15 +2684,15 @@
         <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
@@ -2719,15 +2701,15 @@
         <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -2736,15 +2718,15 @@
         <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -2753,15 +2735,15 @@
         <v>72</v>
       </c>
       <c r="D61" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
@@ -2770,13 +2752,13 @@
         <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -2787,15 +2769,15 @@
         <v>72</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="E63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -2804,15 +2786,15 @@
         <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -2821,15 +2803,15 @@
         <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -2838,15 +2820,15 @@
         <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -2855,9 +2837,9 @@
         <v>72</v>
       </c>
       <c r="D67" t="s">
-        <v>124</v>
-      </c>
-      <c r="E67" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2874,13 +2856,13 @@
       <c r="D68">
         <v>0</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>122</v>
+      <c r="E68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -2889,15 +2871,15 @@
         <v>73</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -2906,15 +2888,15 @@
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -2923,15 +2905,15 @@
         <v>73</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -2940,15 +2922,15 @@
         <v>73</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -2957,15 +2939,15 @@
         <v>73</v>
       </c>
       <c r="D73" t="s">
-        <v>124</v>
-      </c>
-      <c r="E73" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -2974,15 +2956,15 @@
         <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>124</v>
-      </c>
-      <c r="E74" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -2991,13 +2973,13 @@
         <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>124</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -3008,15 +2990,15 @@
         <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>126</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="E76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
@@ -3025,15 +3007,15 @@
         <v>73</v>
       </c>
       <c r="D77" t="s">
-        <v>124</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
@@ -3042,15 +3024,15 @@
         <v>73</v>
       </c>
       <c r="D78" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -3059,15 +3041,15 @@
         <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>124</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
@@ -3076,13 +3058,13 @@
         <v>73</v>
       </c>
       <c r="D80" t="s">
-        <v>124</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -3093,15 +3075,15 @@
         <v>73</v>
       </c>
       <c r="D81" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
@@ -3110,15 +3092,15 @@
         <v>73</v>
       </c>
       <c r="D82" t="s">
-        <v>124</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
@@ -3127,15 +3109,15 @@
         <v>73</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
@@ -3144,15 +3126,15 @@
         <v>73</v>
       </c>
       <c r="D84" t="s">
-        <v>124</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B85" t="s">
         <v>2</v>
@@ -3161,13 +3143,13 @@
         <v>73</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -3178,15 +3160,15 @@
         <v>73</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="E86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
@@ -3195,15 +3177,15 @@
         <v>73</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
@@ -3212,15 +3194,15 @@
         <v>73</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
@@ -3229,15 +3211,15 @@
         <v>73</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -3246,13 +3228,13 @@
         <v>73</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -3263,15 +3245,15 @@
         <v>73</v>
       </c>
       <c r="D91" t="s">
-        <v>126</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="E91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
@@ -3280,15 +3262,15 @@
         <v>73</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -3297,13 +3279,13 @@
         <v>73</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -3314,15 +3296,15 @@
         <v>73</v>
       </c>
       <c r="D94" t="s">
-        <v>124</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
@@ -3331,15 +3313,15 @@
         <v>73</v>
       </c>
       <c r="D95" t="s">
-        <v>124</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
@@ -3348,13 +3330,13 @@
         <v>73</v>
       </c>
       <c r="D96" t="s">
-        <v>124</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>42</v>
       </c>
@@ -3365,15 +3347,15 @@
         <v>73</v>
       </c>
       <c r="D97" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="E97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
@@ -3382,15 +3364,15 @@
         <v>73</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
@@ -3399,15 +3381,15 @@
         <v>73</v>
       </c>
       <c r="D99" t="s">
-        <v>124</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
@@ -3416,15 +3398,15 @@
         <v>73</v>
       </c>
       <c r="D100" t="s">
-        <v>124</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
@@ -3433,9 +3415,9 @@
         <v>73</v>
       </c>
       <c r="D101" t="s">
-        <v>124</v>
-      </c>
-      <c r="E101" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3450,15 +3432,15 @@
         <v>73</v>
       </c>
       <c r="D102" t="s">
-        <v>126</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E102" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
@@ -3467,15 +3449,15 @@
         <v>73</v>
       </c>
       <c r="D103" t="s">
-        <v>124</v>
-      </c>
-      <c r="E103" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B104" t="s">
         <v>2</v>
@@ -3484,15 +3466,15 @@
         <v>73</v>
       </c>
       <c r="D104" t="s">
-        <v>124</v>
-      </c>
-      <c r="E104" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
@@ -3501,15 +3483,15 @@
         <v>73</v>
       </c>
       <c r="D105" t="s">
-        <v>124</v>
-      </c>
-      <c r="E105" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
@@ -3518,15 +3500,15 @@
         <v>73</v>
       </c>
       <c r="D106" t="s">
-        <v>124</v>
-      </c>
-      <c r="E106" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E106" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
@@ -3535,15 +3517,15 @@
         <v>73</v>
       </c>
       <c r="D107" t="s">
-        <v>124</v>
-      </c>
-      <c r="E107" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
@@ -3552,9 +3534,9 @@
         <v>73</v>
       </c>
       <c r="D108" t="s">
-        <v>124</v>
-      </c>
-      <c r="E108" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3571,13 +3553,13 @@
       <c r="D109">
         <v>0</v>
       </c>
-      <c r="E109" s="8" t="s">
-        <v>122</v>
+      <c r="E109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -3586,15 +3568,15 @@
         <v>74</v>
       </c>
       <c r="D110" t="s">
-        <v>124</v>
-      </c>
-      <c r="E110" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E110" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -3603,15 +3585,15 @@
         <v>74</v>
       </c>
       <c r="D111" t="s">
-        <v>124</v>
-      </c>
-      <c r="E111" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -3620,15 +3602,15 @@
         <v>74</v>
       </c>
       <c r="D112" t="s">
-        <v>124</v>
-      </c>
-      <c r="E112" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -3637,15 +3619,15 @@
         <v>74</v>
       </c>
       <c r="D113" t="s">
-        <v>124</v>
-      </c>
-      <c r="E113" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E113" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -3654,15 +3636,15 @@
         <v>74</v>
       </c>
       <c r="D114" t="s">
-        <v>124</v>
-      </c>
-      <c r="E114" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E114" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -3671,15 +3653,15 @@
         <v>74</v>
       </c>
       <c r="D115" t="s">
-        <v>124</v>
-      </c>
-      <c r="E115" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E115" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -3688,9 +3670,9 @@
         <v>74</v>
       </c>
       <c r="D116" t="s">
-        <v>124</v>
-      </c>
-      <c r="E116" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E116" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3705,15 +3687,15 @@
         <v>74</v>
       </c>
       <c r="D117" t="s">
-        <v>126</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E117" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -3722,15 +3704,15 @@
         <v>74</v>
       </c>
       <c r="D118" t="s">
-        <v>124</v>
-      </c>
-      <c r="E118" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E118" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -3739,15 +3721,15 @@
         <v>74</v>
       </c>
       <c r="D119" t="s">
-        <v>124</v>
-      </c>
-      <c r="E119" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E119" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -3756,15 +3738,15 @@
         <v>74</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E120" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E120" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -3773,9 +3755,9 @@
         <v>74</v>
       </c>
       <c r="D121" t="s">
-        <v>124</v>
-      </c>
-      <c r="E121" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E121" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3790,15 +3772,15 @@
         <v>74</v>
       </c>
       <c r="D122" t="s">
-        <v>126</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E122" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -3807,15 +3789,15 @@
         <v>74</v>
       </c>
       <c r="D123" t="s">
-        <v>124</v>
-      </c>
-      <c r="E123" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -3824,15 +3806,15 @@
         <v>74</v>
       </c>
       <c r="D124" t="s">
-        <v>124</v>
-      </c>
-      <c r="E124" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E124" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -3841,15 +3823,15 @@
         <v>74</v>
       </c>
       <c r="D125" t="s">
-        <v>124</v>
-      </c>
-      <c r="E125" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E125" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -3858,15 +3840,15 @@
         <v>74</v>
       </c>
       <c r="D126" t="s">
-        <v>124</v>
-      </c>
-      <c r="E126" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E126" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -3875,15 +3857,15 @@
         <v>74</v>
       </c>
       <c r="D127" t="s">
-        <v>124</v>
-      </c>
-      <c r="E127" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E127" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -3892,15 +3874,15 @@
         <v>74</v>
       </c>
       <c r="D128" t="s">
-        <v>124</v>
-      </c>
-      <c r="E128" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E128" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -3909,9 +3891,9 @@
         <v>74</v>
       </c>
       <c r="D129" t="s">
-        <v>124</v>
-      </c>
-      <c r="E129" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E129" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3926,15 +3908,15 @@
         <v>74</v>
       </c>
       <c r="D130" t="s">
-        <v>126</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E130" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -3943,15 +3925,15 @@
         <v>74</v>
       </c>
       <c r="D131" t="s">
-        <v>124</v>
-      </c>
-      <c r="E131" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E131" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
@@ -3960,15 +3942,15 @@
         <v>74</v>
       </c>
       <c r="D132" t="s">
-        <v>124</v>
-      </c>
-      <c r="E132" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
@@ -3977,9 +3959,9 @@
         <v>74</v>
       </c>
       <c r="D133" t="s">
-        <v>124</v>
-      </c>
-      <c r="E133" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E133" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3994,15 +3976,15 @@
         <v>74</v>
       </c>
       <c r="D134" t="s">
-        <v>126</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E134" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -4011,15 +3993,15 @@
         <v>74</v>
       </c>
       <c r="D135" t="s">
-        <v>124</v>
-      </c>
-      <c r="E135" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E135" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -4028,15 +4010,15 @@
         <v>74</v>
       </c>
       <c r="D136" t="s">
-        <v>124</v>
-      </c>
-      <c r="E136" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E136" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -4045,15 +4027,15 @@
         <v>74</v>
       </c>
       <c r="D137" t="s">
-        <v>124</v>
-      </c>
-      <c r="E137" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E137" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -4062,13 +4044,13 @@
         <v>74</v>
       </c>
       <c r="D138" t="s">
-        <v>124</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E138" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>49</v>
       </c>
@@ -4081,13 +4063,13 @@
       <c r="D139">
         <v>0</v>
       </c>
-      <c r="E139" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
@@ -4096,15 +4078,15 @@
         <v>75</v>
       </c>
       <c r="D140" t="s">
-        <v>124</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E140" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B141" t="s">
         <v>4</v>
@@ -4113,15 +4095,15 @@
         <v>75</v>
       </c>
       <c r="D141" t="s">
-        <v>124</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E141" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B142" t="s">
         <v>4</v>
@@ -4130,9 +4112,9 @@
         <v>75</v>
       </c>
       <c r="D142" t="s">
-        <v>124</v>
-      </c>
-      <c r="E142" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E142" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4147,15 +4129,15 @@
         <v>75</v>
       </c>
       <c r="D143" t="s">
-        <v>126</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E143" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
@@ -4164,15 +4146,15 @@
         <v>75</v>
       </c>
       <c r="D144" t="s">
-        <v>124</v>
-      </c>
-      <c r="E144" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E144" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B145" t="s">
         <v>4</v>
@@ -4181,15 +4163,15 @@
         <v>75</v>
       </c>
       <c r="D145" t="s">
-        <v>124</v>
-      </c>
-      <c r="E145" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E145" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B146" t="s">
         <v>4</v>
@@ -4198,15 +4180,15 @@
         <v>75</v>
       </c>
       <c r="D146" t="s">
-        <v>124</v>
-      </c>
-      <c r="E146" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E146" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B147" t="s">
         <v>4</v>
@@ -4215,15 +4197,15 @@
         <v>75</v>
       </c>
       <c r="D147" t="s">
-        <v>124</v>
-      </c>
-      <c r="E147" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E147" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B148" t="s">
         <v>4</v>
@@ -4232,15 +4214,15 @@
         <v>75</v>
       </c>
       <c r="D148" t="s">
-        <v>124</v>
-      </c>
-      <c r="E148" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E148" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B149" t="s">
         <v>4</v>
@@ -4249,15 +4231,15 @@
         <v>75</v>
       </c>
       <c r="D149" t="s">
-        <v>124</v>
-      </c>
-      <c r="E149" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E149" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
@@ -4266,9 +4248,9 @@
         <v>75</v>
       </c>
       <c r="D150" t="s">
-        <v>124</v>
-      </c>
-      <c r="E150" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E150" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4283,15 +4265,15 @@
         <v>75</v>
       </c>
       <c r="D151" t="s">
-        <v>126</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E151" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
@@ -4300,15 +4282,15 @@
         <v>75</v>
       </c>
       <c r="D152" t="s">
-        <v>124</v>
-      </c>
-      <c r="E152" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E152" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B153" t="s">
         <v>4</v>
@@ -4317,15 +4299,15 @@
         <v>75</v>
       </c>
       <c r="D153" t="s">
-        <v>124</v>
-      </c>
-      <c r="E153" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E153" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B154" t="s">
         <v>4</v>
@@ -4334,15 +4316,15 @@
         <v>75</v>
       </c>
       <c r="D154" t="s">
-        <v>124</v>
-      </c>
-      <c r="E154" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E154" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B155" t="s">
         <v>4</v>
@@ -4351,9 +4333,9 @@
         <v>75</v>
       </c>
       <c r="D155" t="s">
-        <v>124</v>
-      </c>
-      <c r="E155" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E155" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4368,15 +4350,15 @@
         <v>75</v>
       </c>
       <c r="D156" t="s">
-        <v>124</v>
-      </c>
-      <c r="E156" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E156" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
@@ -4385,15 +4367,15 @@
         <v>75</v>
       </c>
       <c r="D157" t="s">
-        <v>124</v>
-      </c>
-      <c r="E157" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E157" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B158" t="s">
         <v>4</v>
@@ -4402,13 +4384,13 @@
         <v>75</v>
       </c>
       <c r="D158" t="s">
-        <v>124</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E158" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>52</v>
       </c>
@@ -4419,15 +4401,15 @@
         <v>75</v>
       </c>
       <c r="D159" t="s">
-        <v>126</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="E159" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>4</v>
@@ -4436,15 +4418,15 @@
         <v>75</v>
       </c>
       <c r="D160" t="s">
-        <v>124</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E160" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>4</v>
@@ -4453,15 +4435,15 @@
         <v>75</v>
       </c>
       <c r="D161" t="s">
-        <v>124</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E161" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>4</v>
@@ -4470,15 +4452,15 @@
         <v>75</v>
       </c>
       <c r="D162" t="s">
-        <v>124</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E162" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>4</v>
@@ -4487,15 +4469,15 @@
         <v>75</v>
       </c>
       <c r="D163" t="s">
-        <v>124</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E163" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>4</v>
@@ -4504,15 +4486,15 @@
         <v>75</v>
       </c>
       <c r="D164" t="s">
-        <v>124</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E164" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>4</v>
@@ -4521,13 +4503,13 @@
         <v>75</v>
       </c>
       <c r="D165" t="s">
-        <v>124</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E165" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>53</v>
       </c>
@@ -4538,15 +4520,15 @@
         <v>75</v>
       </c>
       <c r="D166" t="s">
-        <v>126</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="E166" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>4</v>
@@ -4555,15 +4537,15 @@
         <v>75</v>
       </c>
       <c r="D167" t="s">
-        <v>124</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E167" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>4</v>
@@ -4572,13 +4554,13 @@
         <v>75</v>
       </c>
       <c r="D168" t="s">
-        <v>124</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E168" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>54</v>
       </c>
@@ -4589,15 +4571,15 @@
         <v>75</v>
       </c>
       <c r="D169" t="s">
-        <v>126</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="E169" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B170" t="s">
         <v>4</v>
@@ -4606,15 +4588,15 @@
         <v>75</v>
       </c>
       <c r="D170" t="s">
-        <v>124</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E170" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B171" t="s">
         <v>4</v>
@@ -4623,15 +4605,15 @@
         <v>75</v>
       </c>
       <c r="D171" t="s">
-        <v>124</v>
-      </c>
-      <c r="E171" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E171" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B172" t="s">
         <v>4</v>
@@ -4640,15 +4622,15 @@
         <v>75</v>
       </c>
       <c r="D172" t="s">
-        <v>124</v>
-      </c>
-      <c r="E172" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E172" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B173" t="s">
         <v>4</v>
@@ -4657,13 +4639,13 @@
         <v>75</v>
       </c>
       <c r="D173" t="s">
-        <v>124</v>
-      </c>
-      <c r="E173" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E173" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>55</v>
       </c>
@@ -4676,13 +4658,13 @@
       <c r="D174">
         <v>0</v>
       </c>
-      <c r="E174" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -4691,15 +4673,15 @@
         <v>76</v>
       </c>
       <c r="D175" t="s">
-        <v>124</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E175" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -4708,13 +4690,13 @@
         <v>76</v>
       </c>
       <c r="D176" t="s">
-        <v>124</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E176" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>60</v>
       </c>
@@ -4725,15 +4707,15 @@
         <v>76</v>
       </c>
       <c r="D177" t="s">
-        <v>124</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E177" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -4742,15 +4724,15 @@
         <v>76</v>
       </c>
       <c r="D178" t="s">
-        <v>124</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E178" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -4759,13 +4741,13 @@
         <v>76</v>
       </c>
       <c r="D179" t="s">
-        <v>124</v>
-      </c>
-      <c r="E179" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E179" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>56</v>
       </c>
@@ -4776,15 +4758,15 @@
         <v>76</v>
       </c>
       <c r="D180" t="s">
-        <v>126</v>
-      </c>
-      <c r="E180" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="E180" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -4793,15 +4775,15 @@
         <v>76</v>
       </c>
       <c r="D181" t="s">
-        <v>124</v>
-      </c>
-      <c r="E181" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E181" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -4810,15 +4792,15 @@
         <v>76</v>
       </c>
       <c r="D182" t="s">
-        <v>124</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E182" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -4827,15 +4809,15 @@
         <v>76</v>
       </c>
       <c r="D183" t="s">
-        <v>124</v>
-      </c>
-      <c r="E183" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E183" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -4844,13 +4826,13 @@
         <v>76</v>
       </c>
       <c r="D184" t="s">
-        <v>124</v>
-      </c>
-      <c r="E184" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E184" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>57</v>
       </c>
@@ -4861,15 +4843,15 @@
         <v>76</v>
       </c>
       <c r="D185" t="s">
-        <v>126</v>
-      </c>
-      <c r="E185" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="E185" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -4878,15 +4860,15 @@
         <v>76</v>
       </c>
       <c r="D186" t="s">
-        <v>124</v>
-      </c>
-      <c r="E186" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E186" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -4895,15 +4877,15 @@
         <v>76</v>
       </c>
       <c r="D187" t="s">
-        <v>124</v>
-      </c>
-      <c r="E187" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E187" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -4912,13 +4894,13 @@
         <v>76</v>
       </c>
       <c r="D188" t="s">
-        <v>124</v>
-      </c>
-      <c r="E188" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E188" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>58</v>
       </c>
@@ -4929,10 +4911,10 @@
         <v>76</v>
       </c>
       <c r="D189" t="s">
-        <v>126</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E189" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4946,10 +4928,10 @@
         <v>76</v>
       </c>
       <c r="D190" t="s">
-        <v>126</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E190" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4963,15 +4945,15 @@
         <v>76</v>
       </c>
       <c r="D191" t="s">
-        <v>124</v>
-      </c>
-      <c r="E191" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E191" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -4980,13 +4962,13 @@
         <v>76</v>
       </c>
       <c r="D192" t="s">
-        <v>124</v>
-      </c>
-      <c r="E192" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E192" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>60</v>
       </c>
@@ -4997,15 +4979,15 @@
         <v>76</v>
       </c>
       <c r="D193" t="s">
-        <v>126</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="E193" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -5014,15 +4996,15 @@
         <v>76</v>
       </c>
       <c r="D194" t="s">
-        <v>124</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E194" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -5031,15 +5013,15 @@
         <v>76</v>
       </c>
       <c r="D195" t="s">
-        <v>124</v>
-      </c>
-      <c r="E195" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E195" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -5048,15 +5030,15 @@
         <v>76</v>
       </c>
       <c r="D196" t="s">
-        <v>124</v>
-      </c>
-      <c r="E196" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E196" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -5065,15 +5047,15 @@
         <v>76</v>
       </c>
       <c r="D197" t="s">
-        <v>124</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E197" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -5082,919 +5064,919 @@
         <v>76</v>
       </c>
       <c r="D198" t="s">
-        <v>124</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E198" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B199" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C199" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
-      <c r="E199" t="s">
-        <v>280</v>
+      <c r="E199">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B200" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C200" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D200" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E200" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B201" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C201" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D201" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E201" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B202" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C202" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D202" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E202" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B203" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C203" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D203" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E203" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B204" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C204" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D204" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E204" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B205" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C205" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D205">
         <v>1</v>
       </c>
-      <c r="E205" t="s">
-        <v>280</v>
+      <c r="E205">
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B206" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C206" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D206">
         <v>1</v>
       </c>
-      <c r="E206" t="s">
-        <v>280</v>
+      <c r="E206">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>289</v>
+        <v>431</v>
       </c>
       <c r="B207" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C207" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D207">
-        <v>0</v>
-      </c>
-      <c r="E207" t="s">
-        <v>280</v>
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>290</v>
+        <v>432</v>
       </c>
       <c r="B208" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C208" t="s">
-        <v>279</v>
-      </c>
-      <c r="D208" t="s">
-        <v>124</v>
-      </c>
-      <c r="E208" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>292</v>
+        <v>434</v>
       </c>
       <c r="B209" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C209" t="s">
-        <v>279</v>
-      </c>
-      <c r="D209" t="s">
-        <v>126</v>
-      </c>
-      <c r="E209" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>293</v>
+        <v>433</v>
       </c>
       <c r="B210" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C210" t="s">
-        <v>279</v>
-      </c>
-      <c r="D210" t="s">
-        <v>124</v>
-      </c>
-      <c r="E210" t="s">
+        <v>277</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>294</v>
-      </c>
       <c r="B211" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C211" t="s">
-        <v>279</v>
-      </c>
-      <c r="D211" t="s">
-        <v>124</v>
-      </c>
-      <c r="E211" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B212" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C212" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D212" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E212" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B213" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C213" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D213" t="s">
         <v>124</v>
       </c>
       <c r="E213" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B214" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C214" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D214" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E214" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B215" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C215" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D215" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E215" t="s">
-        <v>291</v>
+        <v>122</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B216" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C216" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D216" t="s">
         <v>124</v>
       </c>
       <c r="E216" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>441</v>
+        <v>289</v>
       </c>
       <c r="B217" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C217" t="s">
-        <v>279</v>
-      </c>
-      <c r="D217">
-        <v>1</v>
+        <v>277</v>
+      </c>
+      <c r="D217" t="s">
+        <v>122</v>
       </c>
       <c r="E217" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>442</v>
+        <v>290</v>
       </c>
       <c r="B218" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C218" t="s">
-        <v>279</v>
-      </c>
-      <c r="D218">
-        <v>1</v>
+        <v>277</v>
+      </c>
+      <c r="D218" t="s">
+        <v>124</v>
       </c>
       <c r="E218" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>443</v>
+        <v>291</v>
       </c>
       <c r="B219" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C219" t="s">
-        <v>279</v>
-      </c>
-      <c r="D219">
-        <v>1</v>
+        <v>277</v>
+      </c>
+      <c r="D219" t="s">
+        <v>122</v>
       </c>
       <c r="E219" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B220" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C220" t="s">
-        <v>302</v>
-      </c>
-      <c r="D220">
-        <v>0</v>
+        <v>277</v>
+      </c>
+      <c r="D220" t="s">
+        <v>122</v>
       </c>
       <c r="E220" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>303</v>
+        <v>425</v>
       </c>
       <c r="B221" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C221" t="s">
-        <v>302</v>
-      </c>
-      <c r="D221" t="s">
-        <v>124</v>
-      </c>
-      <c r="E221" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="B222" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C222" t="s">
-        <v>302</v>
-      </c>
-      <c r="D222" t="s">
-        <v>124</v>
-      </c>
-      <c r="E222" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>305</v>
+        <v>427</v>
       </c>
       <c r="B223" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C223" t="s">
-        <v>302</v>
-      </c>
-      <c r="D223" t="s">
-        <v>124</v>
-      </c>
-      <c r="E223" t="s">
-        <v>300</v>
+        <v>277</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B224" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C224" t="s">
-        <v>302</v>
-      </c>
-      <c r="D224" t="s">
-        <v>124</v>
-      </c>
-      <c r="E224" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B225" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C225" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D225" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E225" t="s">
-        <v>309</v>
+        <v>122</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B226" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C226" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D226" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E226" t="s">
-        <v>311</v>
+        <v>122</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B227" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C227" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D227" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E227" t="s">
-        <v>313</v>
+        <v>122</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B228" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C228" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D228" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E228" t="s">
-        <v>315</v>
+        <v>122</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B229" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C229" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D229" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E229" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="B230" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C230" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D230" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E230" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B231" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C231" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D231" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E231" t="s">
-        <v>291</v>
+        <v>122</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B232" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C232" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D232" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E232" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="B233" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C233" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D233" t="s">
         <v>124</v>
       </c>
       <c r="E233" t="s">
-        <v>309</v>
+        <v>124</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="B234" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C234" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D234" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E234" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="B235" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C235" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D235" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E235" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B236" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C236" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D236" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E236" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="B237" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C237" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D237" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E237" t="s">
-        <v>287</v>
+        <v>122</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B238" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C238" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D238" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E238" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B239" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C239" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D239" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E239" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B240" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C240" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D240" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E240" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B241" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C241" t="s">
-        <v>74</v>
-      </c>
-      <c r="D241">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="D241" t="s">
+        <v>122</v>
       </c>
       <c r="E241" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B242" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C242" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="D242" t="s">
         <v>124</v>
       </c>
       <c r="E242" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B243" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C243" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="D243" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E243" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B244" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C244" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="D244" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E244" t="s">
-        <v>309</v>
+        <v>122</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="B245" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C245" t="s">
         <v>74</v>
       </c>
-      <c r="D245" t="s">
-        <v>124</v>
-      </c>
-      <c r="E245" t="s">
-        <v>287</v>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B246" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C246" t="s">
         <v>74</v>
       </c>
       <c r="D246" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E246" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="B247" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C247" t="s">
         <v>74</v>
       </c>
       <c r="D247" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E247" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B248" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C248" t="s">
         <v>74</v>
       </c>
       <c r="D248" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E248" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B249" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C249" t="s">
         <v>74</v>
       </c>
       <c r="D249" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E249" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="B250" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C250" t="s">
         <v>74</v>
       </c>
       <c r="D250" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E250" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B251" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C251" t="s">
         <v>74</v>
       </c>
       <c r="D251" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E251" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="B252" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C252" t="s">
         <v>74</v>
@@ -6003,117 +5985,117 @@
         <v>124</v>
       </c>
       <c r="E252" t="s">
-        <v>291</v>
+        <v>124</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="B253" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C253" t="s">
         <v>74</v>
       </c>
       <c r="D253" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E253" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="B254" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C254" t="s">
         <v>74</v>
       </c>
-      <c r="D254">
-        <v>0</v>
+      <c r="D254" t="s">
+        <v>124</v>
       </c>
       <c r="E254" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B255" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C255" t="s">
         <v>74</v>
       </c>
       <c r="D255" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E255" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="B256" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C256" t="s">
         <v>74</v>
       </c>
       <c r="D256" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E256" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="B257" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C257" t="s">
         <v>74</v>
       </c>
       <c r="D257" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E257" t="s">
-        <v>311</v>
+        <v>122</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B258" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C258" t="s">
         <v>74</v>
       </c>
-      <c r="D258" t="s">
-        <v>124</v>
-      </c>
-      <c r="E258" t="s">
-        <v>313</v>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B259" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C259" t="s">
         <v>74</v>
@@ -6122,967 +6104,967 @@
         <v>124</v>
       </c>
       <c r="E259" t="s">
-        <v>315</v>
+        <v>124</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="B260" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C260" t="s">
         <v>74</v>
       </c>
       <c r="D260" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E260" t="s">
-        <v>287</v>
+        <v>122</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B261" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C261" t="s">
-        <v>107</v>
-      </c>
-      <c r="D261">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="D261" t="s">
+        <v>122</v>
       </c>
       <c r="E261" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="B262" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C262" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D262" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E262" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B263" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C263" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D263" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E263" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="B264" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C264" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D264" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E264" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="B265" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C265" t="s">
-        <v>107</v>
-      </c>
-      <c r="D265" t="s">
-        <v>124</v>
-      </c>
-      <c r="E265" t="s">
-        <v>315</v>
+        <v>106</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="B266" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C266" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D266" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E266" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="B267" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C267" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D267" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E267" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="B268" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C268" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D268" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E268" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B269" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C269" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D269" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E269" t="s">
-        <v>311</v>
+        <v>122</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B270" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C270" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D270" t="s">
         <v>124</v>
       </c>
       <c r="E270" t="s">
-        <v>287</v>
+        <v>124</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="B271" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C271" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D271" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E271" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B272" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C272" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D272" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E272" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B273" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C273" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D273" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E273" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B274" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C274" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D274" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E274" t="s">
-        <v>315</v>
+        <v>122</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B275" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C275" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D275" t="s">
         <v>124</v>
       </c>
       <c r="E275" t="s">
-        <v>360</v>
+        <v>124</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B276" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C276" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D276" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E276" t="s">
-        <v>287</v>
+        <v>122</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B277" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C277" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D277" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E277" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B278" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C278" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D278" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E278" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="B279" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C279" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D279" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E279" t="s">
-        <v>311</v>
+        <v>122</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B280" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C280" t="s">
-        <v>366</v>
-      </c>
-      <c r="D280">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="D280" t="s">
+        <v>122</v>
       </c>
       <c r="E280" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="B281" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C281" t="s">
-        <v>366</v>
+        <v>106</v>
       </c>
       <c r="D281" t="s">
         <v>124</v>
       </c>
       <c r="E281" t="s">
-        <v>291</v>
+        <v>124</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B282" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C282" t="s">
-        <v>366</v>
+        <v>106</v>
       </c>
       <c r="D282" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E282" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="B283" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C283" t="s">
-        <v>366</v>
+        <v>106</v>
       </c>
       <c r="D283" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E283" t="s">
-        <v>309</v>
+        <v>122</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B284" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C284" t="s">
-        <v>366</v>
-      </c>
-      <c r="D284" t="s">
-        <v>124</v>
-      </c>
-      <c r="E284" t="s">
-        <v>311</v>
+        <v>352</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="B285" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C285" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D285" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E285" t="s">
-        <v>315</v>
+        <v>122</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B286" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C286" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D286" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E286" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="B287" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C287" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D287" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E287" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B288" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C288" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D288" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E288" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="B289" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C289" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D289" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E289" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B290" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C290" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D290" t="s">
         <v>124</v>
       </c>
       <c r="E290" t="s">
-        <v>309</v>
+        <v>124</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B291" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C291" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D291" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E291" t="s">
-        <v>313</v>
+        <v>122</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="B292" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C292" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D292" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E292" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="B293" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C293" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D293" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E293" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="B294" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C294" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D294" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E294" t="s">
-        <v>313</v>
+        <v>122</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="B295" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C295" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D295" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E295" t="s">
-        <v>381</v>
+        <v>122</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="B296" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C296" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D296" t="s">
         <v>124</v>
       </c>
       <c r="E296" t="s">
-        <v>315</v>
+        <v>124</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B297" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C297" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D297" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E297" t="s">
-        <v>287</v>
+        <v>122</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="B298" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C298" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D298" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E298" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="B299" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C299" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D299" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E299" t="s">
-        <v>311</v>
+        <v>122</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="B300" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C300" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D300" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E300" t="s">
-        <v>315</v>
+        <v>122</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="B301" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C301" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D301" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E301" t="s">
-        <v>287</v>
+        <v>122</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B302" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C302" t="s">
-        <v>76</v>
-      </c>
-      <c r="D302">
-        <v>0</v>
+        <v>352</v>
+      </c>
+      <c r="D302" t="s">
+        <v>124</v>
       </c>
       <c r="E302" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="B303" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C303" t="s">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="D303" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E303" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="B304" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C304" t="s">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="D304" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E304" t="s">
-        <v>291</v>
+        <v>122</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="B305" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C305" t="s">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="D305" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E305" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="B306" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C306" t="s">
-        <v>76</v>
-      </c>
-      <c r="D306" t="s">
-        <v>124</v>
-      </c>
-      <c r="E306" t="s">
-        <v>307</v>
+        <v>352</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="B307" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C307" t="s">
         <v>76</v>
       </c>
-      <c r="D307" t="s">
-        <v>124</v>
-      </c>
-      <c r="E307" t="s">
-        <v>285</v>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="B308" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C308" t="s">
         <v>76</v>
       </c>
       <c r="D308" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E308" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="B309" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C309" t="s">
         <v>76</v>
       </c>
       <c r="D309" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E309" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="B310" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C310" t="s">
         <v>76</v>
       </c>
       <c r="D310" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E310" t="s">
-        <v>309</v>
+        <v>122</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="B311" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C311" t="s">
         <v>76</v>
       </c>
       <c r="D311" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E311" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="B312" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C312" t="s">
         <v>76</v>
       </c>
       <c r="D312" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E312" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="B313" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C313" t="s">
         <v>76</v>
       </c>
       <c r="D313" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E313" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="B314" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C314" t="s">
         <v>76</v>
       </c>
       <c r="D314" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E314" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="B315" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C315" t="s">
         <v>76</v>
       </c>
       <c r="D315" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E315" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="B316" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C316" t="s">
         <v>76</v>
@@ -7091,287 +7073,287 @@
         <v>124</v>
       </c>
       <c r="E316" t="s">
-        <v>381</v>
+        <v>124</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="B317" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C317" t="s">
         <v>76</v>
       </c>
       <c r="D317" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E317" t="s">
-        <v>287</v>
+        <v>122</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="B318" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C318" t="s">
-        <v>73</v>
-      </c>
-      <c r="D318">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="D318" t="s">
+        <v>124</v>
       </c>
       <c r="E318" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="B319" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C319" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D319" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E319" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="B320" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C320" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D320" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E320" t="s">
-        <v>291</v>
+        <v>122</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="B321" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C321" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D321" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E321" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="B322" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C322" t="s">
-        <v>73</v>
-      </c>
-      <c r="D322" t="s">
-        <v>124</v>
-      </c>
-      <c r="E322" t="s">
-        <v>309</v>
+        <v>76</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="B323" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C323" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D323" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E323" t="s">
-        <v>311</v>
+        <v>122</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="B324" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C324" t="s">
         <v>73</v>
       </c>
-      <c r="D324" t="s">
-        <v>124</v>
-      </c>
-      <c r="E324" t="s">
-        <v>381</v>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="B325" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C325" t="s">
         <v>73</v>
       </c>
       <c r="D325" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E325" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="B326" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C326" t="s">
         <v>73</v>
       </c>
       <c r="D326" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E326" t="s">
-        <v>360</v>
+        <v>122</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="B327" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C327" t="s">
         <v>73</v>
       </c>
       <c r="D327" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E327" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="B328" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C328" t="s">
         <v>73</v>
       </c>
       <c r="D328" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E328" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="B329" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C329" t="s">
         <v>73</v>
       </c>
       <c r="D329" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E329" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="B330" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C330" t="s">
         <v>73</v>
       </c>
       <c r="D330" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E330" t="s">
-        <v>313</v>
+        <v>122</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="B331" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C331" t="s">
         <v>73</v>
       </c>
       <c r="D331" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E331" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="B332" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C332" t="s">
         <v>73</v>
       </c>
       <c r="D332" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E332" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="B333" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C333" t="s">
         <v>73</v>
@@ -7380,466 +7362,585 @@
         <v>124</v>
       </c>
       <c r="E333" t="s">
-        <v>309</v>
+        <v>124</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="B334" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C334" t="s">
         <v>73</v>
       </c>
       <c r="D334" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E334" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="B335" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C335" t="s">
         <v>73</v>
       </c>
       <c r="D335" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E335" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="B336" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C336" t="s">
-        <v>72</v>
-      </c>
-      <c r="D336">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="D336" t="s">
+        <v>122</v>
       </c>
       <c r="E336" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="B337" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C337" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D337" t="s">
         <v>124</v>
       </c>
       <c r="E337" t="s">
-        <v>283</v>
+        <v>124</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="B338" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C338" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D338" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E338" t="s">
-        <v>287</v>
+        <v>122</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="B339" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C339" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D339" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E339" t="s">
-        <v>287</v>
+        <v>122</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="B340" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C340" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D340" t="s">
         <v>124</v>
       </c>
       <c r="E340" t="s">
-        <v>287</v>
+        <v>124</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="B341" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C341" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D341" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E341" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="B342" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C342" t="s">
-        <v>72</v>
-      </c>
-      <c r="D342" t="s">
-        <v>124</v>
-      </c>
-      <c r="E342" t="s">
-        <v>283</v>
+        <v>73</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="B343" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C343" t="s">
         <v>72</v>
       </c>
-      <c r="D343" t="s">
-        <v>124</v>
-      </c>
-      <c r="E343" t="s">
-        <v>287</v>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="B344" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C344" t="s">
         <v>72</v>
       </c>
       <c r="D344" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E344" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B345" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C345" t="s">
         <v>72</v>
       </c>
       <c r="D345" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E345" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B346" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C346" t="s">
         <v>72</v>
       </c>
       <c r="D346" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E346" t="s">
-        <v>287</v>
+        <v>122</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="B347" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C347" t="s">
-        <v>91</v>
-      </c>
-      <c r="D347">
-        <v>0</v>
-      </c>
-      <c r="E347" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D347" t="s">
+        <v>122</v>
+      </c>
+      <c r="E347" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="B348" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C348" t="s">
-        <v>91</v>
-      </c>
-      <c r="D348">
-        <v>1</v>
-      </c>
-      <c r="E348" s="8" t="s">
-        <v>122</v>
+        <v>72</v>
+      </c>
+      <c r="D348" t="s">
+        <v>124</v>
+      </c>
+      <c r="E348" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="B349" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C349" t="s">
-        <v>91</v>
-      </c>
-      <c r="D349">
-        <v>1</v>
-      </c>
-      <c r="E349" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D349" t="s">
+        <v>122</v>
+      </c>
+      <c r="E349" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="B350" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C350" t="s">
-        <v>91</v>
-      </c>
-      <c r="D350">
-        <v>1</v>
-      </c>
-      <c r="E350" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D350" t="s">
+        <v>122</v>
+      </c>
+      <c r="E350" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>83</v>
+        <v>415</v>
       </c>
       <c r="B351" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C351" t="s">
-        <v>91</v>
-      </c>
-      <c r="D351">
-        <v>1</v>
-      </c>
-      <c r="E351" s="8" t="s">
-        <v>122</v>
+        <v>72</v>
+      </c>
+      <c r="D351" t="s">
+        <v>124</v>
+      </c>
+      <c r="E351" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>90</v>
+        <v>416</v>
       </c>
       <c r="B352" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C352" t="s">
-        <v>91</v>
-      </c>
-      <c r="D352">
-        <v>1</v>
-      </c>
-      <c r="E352" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D352" t="s">
+        <v>122</v>
+      </c>
+      <c r="E352" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>84</v>
+        <v>417</v>
       </c>
       <c r="B353" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C353" t="s">
-        <v>91</v>
-      </c>
-      <c r="D353">
-        <v>1</v>
-      </c>
-      <c r="E353" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D353" t="s">
+        <v>122</v>
+      </c>
+      <c r="E353" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B354" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C354" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D354">
         <v>0</v>
       </c>
-      <c r="E354" s="8" t="s">
-        <v>122</v>
+      <c r="E354">
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>88</v>
+        <v>437</v>
       </c>
       <c r="B355" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C355" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D355">
         <v>1</v>
       </c>
-      <c r="E355" s="8" t="s">
-        <v>122</v>
+      <c r="E355">
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B356" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C356" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D356">
         <v>1</v>
       </c>
-      <c r="E356" s="8" t="s">
-        <v>122</v>
+      <c r="E356">
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B357" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C357" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D357">
         <v>1</v>
       </c>
-      <c r="E357" s="8" t="s">
-        <v>122</v>
+      <c r="E357">
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B358" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C358" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D358">
         <v>1</v>
       </c>
-      <c r="E358" s="8" t="s">
-        <v>122</v>
+      <c r="E358">
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>446</v>
+        <v>89</v>
       </c>
       <c r="B359" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C359" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D359">
         <v>1</v>
       </c>
-      <c r="E359" s="8" t="s">
-        <v>122</v>
+      <c r="E359">
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>447</v>
+        <v>83</v>
       </c>
       <c r="B360" t="s">
+        <v>91</v>
+      </c>
+      <c r="C360" t="s">
+        <v>90</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>436</v>
+      </c>
+      <c r="B361" t="s">
+        <v>84</v>
+      </c>
+      <c r="C361" t="s">
+        <v>90</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>87</v>
+      </c>
+      <c r="B362" t="s">
+        <v>84</v>
+      </c>
+      <c r="C362" t="s">
+        <v>90</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
         <v>85</v>
       </c>
-      <c r="C360" t="s">
-        <v>91</v>
-      </c>
-      <c r="D360">
-        <v>1</v>
-      </c>
-      <c r="E360" s="8" t="s">
-        <v>122</v>
+      <c r="B363" t="s">
+        <v>84</v>
+      </c>
+      <c r="C363" t="s">
+        <v>90</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>86</v>
+      </c>
+      <c r="B364" t="s">
+        <v>84</v>
+      </c>
+      <c r="C364" t="s">
+        <v>90</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>88</v>
+      </c>
+      <c r="B365" t="s">
+        <v>84</v>
+      </c>
+      <c r="C365" t="s">
+        <v>90</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>438</v>
+      </c>
+      <c r="B366" t="s">
+        <v>84</v>
+      </c>
+      <c r="C366" t="s">
+        <v>90</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>439</v>
+      </c>
+      <c r="B367" t="s">
+        <v>84</v>
+      </c>
+      <c r="C367" t="s">
+        <v>90</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7875,7 +7976,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7883,7 +7984,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7915,7 +8016,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7929,7 +8030,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7951,115 +8052,115 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -8106,7 +8207,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8117,7 +8218,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
@@ -8131,7 +8232,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -8145,7 +8246,7 @@
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
         <v>64</v>
@@ -8159,7 +8260,7 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>67</v>
@@ -8173,7 +8274,7 @@
         <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
